--- a/tphcm/forecast_results_complete.xlsx
+++ b/tphcm/forecast_results_complete.xlsx
@@ -6773,85 +6773,85 @@
         <v>13671.99999999994</v>
       </c>
       <c r="C7" t="n">
-        <v>13693.77832634967</v>
+        <v>13817.88773070236</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>13671.73449749409</v>
+        <v>13641.23691371911</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
         <v>101330.1000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>101152.3243452283</v>
+        <v>101221.2708977097</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>101329.9761405284</v>
+        <v>101268.0460167008</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
         <v>13.47</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.50067156321463</v>
+        <v>13.56158768035311</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>13.47028848149554</v>
+        <v>13.43871673503981</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
         <v>7009.199999999997</v>
       </c>
       <c r="X7" t="n">
-        <v>7009.428669844408</v>
+        <v>7192.129966094281</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
-        <v>7100.908518147296</v>
+        <v>7178.315869902519</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>48921.90000000014</v>
+        <v>51846.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>48926.03914437166</v>
+        <v>49017.49103376232</v>
       </c>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>48977.48147187635</v>
+        <v>51300.61836565418</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="n">
         <v>14.28000000000009</v>
       </c>
       <c r="AL7" t="n">
-        <v>14.20082435181384</v>
+        <v>14.83824976184166</v>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="n">
-        <v>14.28004903528537</v>
+        <v>14.22500000037253</v>
       </c>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="n">
         <v>2560901.400000006</v>
       </c>
       <c r="AS7" t="n">
-        <v>2561191.7264816</v>
+        <v>2858681.038437077</v>
       </c>
       <c r="AT7" t="n">
         <v>2750647.9</v>
@@ -6863,16 +6863,16 @@
         <v>2700636.12</v>
       </c>
       <c r="AW7" t="n">
-        <v>2667112.01512485</v>
+        <v>2612520.405176737</v>
       </c>
       <c r="AX7" t="n">
-        <v>2701428.450187958</v>
+        <v>2701428.450186976</v>
       </c>
       <c r="AY7" t="n">
         <v>10761997.60000014</v>
       </c>
       <c r="AZ7" t="n">
-        <v>11106698.88681803</v>
+        <v>11215123.72602112</v>
       </c>
       <c r="BA7" t="n">
         <v>11243996.5</v>
@@ -6884,31 +6884,31 @@
         <v>11039560.2</v>
       </c>
       <c r="BD7" t="n">
-        <v>10944704.59134252</v>
+        <v>10849920.0217779</v>
       </c>
       <c r="BE7" t="n">
-        <v>11115516.40946284</v>
+        <v>11115516.40949909</v>
       </c>
       <c r="BF7" t="n">
-        <v>23.58999999999992</v>
+        <v>25.12</v>
       </c>
       <c r="BG7" t="n">
-        <v>24.39971915001136</v>
+        <v>23.72186273477256</v>
       </c>
       <c r="BH7" t="inlineStr"/>
       <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="n">
-        <v>23.59007053327272</v>
+        <v>24.70353080363402</v>
       </c>
       <c r="BL7" t="n">
-        <v>24.43055758580782</v>
+        <v>24.42901475539798</v>
       </c>
       <c r="BM7" t="n">
         <v>1639225.799999997</v>
       </c>
       <c r="BN7" t="n">
-        <v>1639318.443883728</v>
+        <v>1893501.568770345</v>
       </c>
       <c r="BO7" t="n">
         <v>1799915.7</v>
@@ -6920,7 +6920,7 @@
         <v>1767189.96</v>
       </c>
       <c r="BR7" t="n">
-        <v>1642424.107063242</v>
+        <v>1676249.120260319</v>
       </c>
       <c r="BS7" t="n">
         <v>1721359.830679975</v>
@@ -6929,7 +6929,7 @@
         <v>6038193.100000024</v>
       </c>
       <c r="BU7" t="n">
-        <v>6158382.695328467</v>
+        <v>6787819.93444059</v>
       </c>
       <c r="BV7" t="n">
         <v>6439494.600000001</v>
@@ -6941,70 +6941,70 @@
         <v>6322412.880000001</v>
       </c>
       <c r="BY7" t="n">
-        <v>6198710.657488605</v>
+        <v>6100617.534032411</v>
       </c>
       <c r="BZ7" t="n">
-        <v>6196423.051016377</v>
+        <v>6196423.051022256</v>
       </c>
       <c r="CA7" t="n">
-        <v>26.97000000000003</v>
+        <v>28.8</v>
       </c>
       <c r="CB7" t="n">
-        <v>27.89971946632444</v>
+        <v>27.1787822735866</v>
       </c>
       <c r="CC7" t="inlineStr"/>
       <c r="CD7" t="inlineStr"/>
       <c r="CE7" t="inlineStr"/>
       <c r="CF7" t="n">
-        <v>26.97006783393802</v>
+        <v>28.32383545716352</v>
       </c>
       <c r="CG7" t="n">
-        <v>27.91025608279328</v>
+        <v>27.9101239553171</v>
       </c>
       <c r="CH7" t="n">
         <v>104.6370000000001</v>
       </c>
       <c r="CI7" t="n">
-        <v>104.6461853559177</v>
+        <v>100.3284266354743</v>
       </c>
       <c r="CJ7" t="inlineStr"/>
       <c r="CK7" t="inlineStr"/>
       <c r="CL7" t="inlineStr"/>
       <c r="CM7" t="n">
-        <v>104.6370132868253</v>
+        <v>104.7200059158082</v>
       </c>
       <c r="CN7" t="inlineStr"/>
       <c r="CO7" t="n">
         <v>105.715</v>
       </c>
       <c r="CP7" t="n">
-        <v>105.7173597892927</v>
+        <v>102.6505895685406</v>
       </c>
       <c r="CQ7" t="inlineStr"/>
       <c r="CR7" t="inlineStr"/>
       <c r="CS7" t="inlineStr"/>
       <c r="CT7" t="n">
-        <v>105.7149835432156</v>
+        <v>105.4700059853955</v>
       </c>
       <c r="CU7" t="inlineStr"/>
       <c r="CV7" t="n">
         <v>-1.07000000000005</v>
       </c>
       <c r="CW7" t="n">
-        <v>-1.082180664669205</v>
+        <v>-0.6586681585126405</v>
       </c>
       <c r="CX7" t="inlineStr"/>
       <c r="CY7" t="inlineStr"/>
       <c r="CZ7" t="inlineStr"/>
       <c r="DA7" t="n">
-        <v>-1.070000206853325</v>
+        <v>-0.7399940701849738</v>
       </c>
       <c r="DB7" t="inlineStr"/>
       <c r="DC7" t="n">
         <v>689566.8999999985</v>
       </c>
       <c r="DD7" t="n">
-        <v>689602.707733514</v>
+        <v>734623.9603144766</v>
       </c>
       <c r="DE7" t="n">
         <v>709969.7000000001</v>
@@ -7016,14 +7016,14 @@
         <v>697061.16</v>
       </c>
       <c r="DH7" t="n">
-        <v>699872.0238079184</v>
+        <v>662900.5743913976</v>
       </c>
       <c r="DI7" t="inlineStr"/>
       <c r="DJ7" t="n">
         <v>1808843.099999994</v>
       </c>
       <c r="DK7" t="n">
-        <v>1808916.532677205</v>
+        <v>1909409.615502116</v>
       </c>
       <c r="DL7" t="n">
         <v>1889580</v>
@@ -7035,66 +7035,66 @@
         <v>1855224</v>
       </c>
       <c r="DO7" t="n">
-        <v>1817252.349419833</v>
+        <v>1759999.70981278</v>
       </c>
       <c r="DP7" t="inlineStr"/>
       <c r="DQ7" t="n">
         <v>38.18999999999994</v>
       </c>
       <c r="DR7" t="n">
-        <v>38.18588251859948</v>
+        <v>38.8164322958023</v>
       </c>
       <c r="DS7" t="inlineStr"/>
       <c r="DT7" t="inlineStr"/>
       <c r="DU7" t="inlineStr"/>
       <c r="DV7" t="n">
-        <v>38.18999990384311</v>
+        <v>37.7099280603851</v>
       </c>
       <c r="DW7" t="inlineStr"/>
       <c r="DX7" t="n">
         <v>196917.3000000007</v>
       </c>
       <c r="DY7" t="n">
-        <v>196849.7677615324</v>
+        <v>197755.339255614</v>
       </c>
       <c r="DZ7" t="inlineStr"/>
       <c r="EA7" t="inlineStr"/>
       <c r="EB7" t="inlineStr"/>
       <c r="EC7" t="n">
-        <v>170040.0123530991</v>
+        <v>202376.193828771</v>
       </c>
       <c r="ED7" t="inlineStr"/>
       <c r="EE7" t="n">
-        <v>1667510.800000004</v>
+        <v>1721330.2</v>
       </c>
       <c r="EF7" t="n">
-        <v>1665506.398303381</v>
+        <v>1652200.836132135</v>
       </c>
       <c r="EG7" t="inlineStr"/>
       <c r="EH7" t="inlineStr"/>
       <c r="EI7" t="inlineStr"/>
       <c r="EJ7" t="n">
-        <v>1624638.355588362</v>
+        <v>1731633.940835995</v>
       </c>
       <c r="EK7" t="inlineStr"/>
       <c r="EL7" t="n">
         <v>11.79000000000008</v>
       </c>
       <c r="EM7" t="n">
-        <v>11.79206294169142</v>
+        <v>11.68329455465929</v>
       </c>
       <c r="EN7" t="inlineStr"/>
       <c r="EO7" t="inlineStr"/>
       <c r="EP7" t="inlineStr"/>
       <c r="EQ7" t="n">
-        <v>8.100000075995931</v>
+        <v>11.87090183346942</v>
       </c>
       <c r="ER7" t="inlineStr"/>
       <c r="ES7" t="n">
         <v>187.7999999999993</v>
       </c>
       <c r="ET7" t="n">
-        <v>187.8481172960223</v>
+        <v>219.2229099958378</v>
       </c>
       <c r="EU7" t="n">
         <v>204.27</v>
@@ -7106,16 +7106,16 @@
         <v>200.556</v>
       </c>
       <c r="EX7" t="n">
-        <v>195.9875600498978</v>
+        <v>191.5749996445363</v>
       </c>
       <c r="EY7" t="n">
-        <v>199.7242585004657</v>
+        <v>199.5490139605828</v>
       </c>
       <c r="EZ7" t="n">
         <v>106.5600000000013</v>
       </c>
       <c r="FA7" t="n">
-        <v>109.9436658751935</v>
+        <v>114.8848070063171</v>
       </c>
       <c r="FB7" t="n">
         <v>112.09</v>
@@ -7127,31 +7127,31 @@
         <v>110.052</v>
       </c>
       <c r="FE7" t="n">
-        <v>106.5600046093975</v>
+        <v>107.3999999940395</v>
       </c>
       <c r="FF7" t="n">
-        <v>110.5865560008758</v>
+        <v>110.5588937446282</v>
       </c>
       <c r="FG7" t="n">
-        <v>1.730000000000004</v>
+        <v>1.88</v>
       </c>
       <c r="FH7" t="n">
-        <v>1.730257415098284</v>
+        <v>1.75528058693151</v>
       </c>
       <c r="FI7" t="inlineStr"/>
       <c r="FJ7" t="inlineStr"/>
       <c r="FK7" t="inlineStr"/>
       <c r="FL7" t="n">
-        <v>1.730209238579335</v>
+        <v>1.840323023067271</v>
       </c>
       <c r="FM7" t="n">
-        <v>1.800000000000006</v>
+        <v>1.699993913383272</v>
       </c>
       <c r="FN7" t="n">
-        <v>544504.8000000007</v>
+        <v>566029.8</v>
       </c>
       <c r="FO7" t="n">
-        <v>544611.1401680971</v>
+        <v>536535.8419572592</v>
       </c>
       <c r="FP7" t="n">
         <v>649616</v>
@@ -7163,7 +7163,7 @@
         <v>637804.8</v>
       </c>
       <c r="FS7" t="n">
-        <v>537796.3562758866</v>
+        <v>578083.0886981585</v>
       </c>
       <c r="FT7" t="n">
         <v>632562.6876396023</v>
@@ -7172,7 +7172,7 @@
         <v>3580966.199999988</v>
       </c>
       <c r="FV7" t="n">
-        <v>3688921.148182982</v>
+        <v>3848152.766979867</v>
       </c>
       <c r="FW7" t="n">
         <v>3765817</v>
@@ -7184,31 +7184,31 @@
         <v>3697347.6</v>
       </c>
       <c r="FZ7" t="n">
-        <v>3623846.520254644</v>
+        <v>3611559.041496926</v>
       </c>
       <c r="GA7" t="n">
-        <v>3685992.394118153</v>
+        <v>3685992.394116915</v>
       </c>
       <c r="GB7" t="n">
-        <v>14.57999999999993</v>
+        <v>19.02</v>
       </c>
       <c r="GC7" t="n">
-        <v>14.58436101614132</v>
+        <v>16.09170228847406</v>
       </c>
       <c r="GD7" t="inlineStr"/>
       <c r="GE7" t="inlineStr"/>
       <c r="GF7" t="inlineStr"/>
       <c r="GG7" t="n">
-        <v>14.58000542507533</v>
+        <v>17.84291063528007</v>
       </c>
       <c r="GH7" t="n">
-        <v>17.60857453902074</v>
+        <v>17.60806326411605</v>
       </c>
       <c r="GI7" t="n">
         <v>17855.69999999995</v>
       </c>
       <c r="GJ7" t="n">
-        <v>18312.22130771704</v>
+        <v>19392.43277469739</v>
       </c>
       <c r="GK7" t="n">
         <v>18846.3</v>
@@ -7220,16 +7220,16 @@
         <v>18503.64</v>
       </c>
       <c r="GN7" t="n">
-        <v>17856.44678512102</v>
+        <v>18052.9627550521</v>
       </c>
       <c r="GO7" t="n">
-        <v>18512.1521097326</v>
+        <v>18513.36479320472</v>
       </c>
       <c r="GP7" t="n">
         <v>40705.69999999972</v>
       </c>
       <c r="GQ7" t="n">
-        <v>41964.65822568946</v>
+        <v>44467.28133301575</v>
       </c>
       <c r="GR7" t="n">
         <v>43066.10000000001</v>
@@ -7241,31 +7241,31 @@
         <v>42283.08</v>
       </c>
       <c r="GU7" t="n">
-        <v>41956.92536017115</v>
+        <v>41198.2032424662</v>
       </c>
       <c r="GV7" t="n">
-        <v>43076.93601930628</v>
+        <v>42869.89235052758</v>
       </c>
       <c r="GW7" t="n">
         <v>43.90000000000001</v>
       </c>
       <c r="GX7" t="n">
-        <v>43.69971124396303</v>
+        <v>44.27623186458607</v>
       </c>
       <c r="GY7" t="inlineStr"/>
       <c r="GZ7" t="inlineStr"/>
       <c r="HA7" t="inlineStr"/>
       <c r="HB7" t="n">
-        <v>43.90053474726689</v>
+        <v>43.8866426195292</v>
       </c>
       <c r="HC7" t="n">
-        <v>44.1162890167851</v>
+        <v>44.11425870933999</v>
       </c>
       <c r="HD7" t="n">
         <v>138616.9000000004</v>
       </c>
       <c r="HE7" t="n">
-        <v>136411.9025650865</v>
+        <v>147734.6240094999</v>
       </c>
       <c r="HF7" t="n">
         <v>146071.2</v>
@@ -7277,14 +7277,14 @@
         <v>143415.36</v>
       </c>
       <c r="HI7" t="n">
-        <v>137516.9005516804</v>
+        <v>137840.3499043104</v>
       </c>
       <c r="HJ7" t="inlineStr"/>
       <c r="HK7" t="n">
         <v>496432.900000006</v>
       </c>
       <c r="HL7" t="n">
-        <v>496250.2422375202</v>
+        <v>526030.9077848614</v>
       </c>
       <c r="HM7" t="n">
         <v>517187.0000000001</v>
@@ -7296,111 +7296,111 @@
         <v>507783.6</v>
       </c>
       <c r="HP7" t="n">
-        <v>492283.5080974367</v>
+        <v>496857.1286148952</v>
       </c>
       <c r="HQ7" t="inlineStr"/>
       <c r="HR7" t="n">
-        <v>27.63999999999987</v>
+        <v>29.74</v>
       </c>
       <c r="HS7" t="n">
-        <v>27.62983333269413</v>
+        <v>27.99227157534032</v>
       </c>
       <c r="HT7" t="inlineStr"/>
       <c r="HU7" t="inlineStr"/>
       <c r="HV7" t="inlineStr"/>
       <c r="HW7" t="n">
-        <v>27.63999994113829</v>
+        <v>28.20404113472997</v>
       </c>
       <c r="HX7" t="inlineStr"/>
       <c r="HY7" t="n">
         <v>347247.5999999978</v>
       </c>
       <c r="HZ7" t="n">
-        <v>330642.4175462271</v>
+        <v>357733.2511580482</v>
       </c>
       <c r="IA7" t="inlineStr"/>
       <c r="IB7" t="inlineStr"/>
       <c r="IC7" t="inlineStr"/>
       <c r="ID7" t="n">
-        <v>340952.1632108457</v>
+        <v>339950.2740061674</v>
       </c>
       <c r="IE7" t="inlineStr"/>
       <c r="IF7" t="n">
         <v>971948.0000000149</v>
       </c>
       <c r="IG7" t="n">
-        <v>946937.3786963755</v>
+        <v>1032621.777946972</v>
       </c>
       <c r="IH7" t="inlineStr"/>
       <c r="II7" t="inlineStr"/>
       <c r="IJ7" t="inlineStr"/>
       <c r="IK7" t="n">
-        <v>962013.1449395673</v>
+        <v>958701.8706628418</v>
       </c>
       <c r="IL7" t="inlineStr"/>
       <c r="IM7" t="n">
-        <v>35.66999999999996</v>
+        <v>36.66</v>
       </c>
       <c r="IN7" t="n">
-        <v>34.89780683383983</v>
+        <v>35.70636864100742</v>
       </c>
       <c r="IO7" t="inlineStr"/>
       <c r="IP7" t="inlineStr"/>
       <c r="IQ7" t="inlineStr"/>
       <c r="IR7" t="n">
-        <v>34.90000000596048</v>
+        <v>35.70000101192095</v>
       </c>
       <c r="IS7" t="inlineStr"/>
       <c r="IT7" t="n">
-        <v>572547.200000003</v>
+        <v>628571.6</v>
       </c>
       <c r="IU7" t="n">
-        <v>572520.6759216288</v>
+        <v>578981.5119762396</v>
       </c>
       <c r="IV7" t="inlineStr"/>
       <c r="IW7" t="inlineStr"/>
       <c r="IX7" t="inlineStr"/>
       <c r="IY7" t="n">
-        <v>551862.7097340965</v>
+        <v>609456.0070729889</v>
       </c>
       <c r="IZ7" t="n">
-        <v>615370.227900675</v>
+        <v>615370.2279011599</v>
       </c>
       <c r="JA7" t="n">
-        <v>4995081.299999997</v>
+        <v>5179986.6</v>
       </c>
       <c r="JB7" t="n">
-        <v>4999693.98761334</v>
+        <v>4992641.743857278</v>
       </c>
       <c r="JC7" t="inlineStr"/>
       <c r="JD7" t="inlineStr"/>
       <c r="JE7" t="inlineStr"/>
       <c r="JF7" t="n">
-        <v>5053537.060808727</v>
+        <v>5123213.766656515</v>
       </c>
       <c r="JG7" t="n">
-        <v>5155588.00010721</v>
+        <v>5155588.000060129</v>
       </c>
       <c r="JH7" t="n">
-        <v>11.44999999999999</v>
+        <v>12.14</v>
       </c>
       <c r="JI7" t="n">
-        <v>11.45098046516073</v>
+        <v>11.48782425790371</v>
       </c>
       <c r="JJ7" t="inlineStr"/>
       <c r="JK7" t="inlineStr"/>
       <c r="JL7" t="inlineStr"/>
       <c r="JM7" t="n">
-        <v>11.44971334348429</v>
+        <v>11.90000601788116</v>
       </c>
       <c r="JN7" t="n">
-        <v>11.92828358131699</v>
+        <v>11.92796879421135</v>
       </c>
       <c r="JO7" t="n">
         <v>1304877.599999994</v>
       </c>
       <c r="JP7" t="n">
-        <v>1305028.22340851</v>
+        <v>1392121.910822829</v>
       </c>
       <c r="JQ7" t="n">
         <v>1660413.7</v>
@@ -7412,14 +7412,14 @@
         <v>1630224.36</v>
       </c>
       <c r="JT7" t="n">
-        <v>1059661.666101181</v>
+        <v>1558125.357428805</v>
       </c>
       <c r="JU7" t="inlineStr"/>
       <c r="JV7" t="n">
         <v>6025268.699999928</v>
       </c>
       <c r="JW7" t="n">
-        <v>6025547.409144233</v>
+        <v>6698681.756145542</v>
       </c>
       <c r="JX7" t="n">
         <v>6452035.7</v>
@@ -7431,59 +7431,59 @@
         <v>6334725.96</v>
       </c>
       <c r="KA7" t="n">
-        <v>6092172.56681283</v>
+        <v>6109008.535584703</v>
       </c>
       <c r="KB7" t="inlineStr"/>
       <c r="KC7" t="n">
-        <v>21.12000000000012</v>
+        <v>23.64</v>
       </c>
       <c r="KD7" t="n">
-        <v>21.12428191907967</v>
+        <v>23.15973860123709</v>
       </c>
       <c r="KE7" t="inlineStr"/>
       <c r="KF7" t="inlineStr"/>
       <c r="KG7" t="inlineStr"/>
       <c r="KH7" t="n">
-        <v>21.1200833199631</v>
+        <v>23.95973944808301</v>
       </c>
       <c r="KI7" t="inlineStr"/>
       <c r="KJ7" t="n">
         <v>87481.60000000056</v>
       </c>
       <c r="KK7" t="n">
-        <v>87490.62294155059</v>
+        <v>87898.48313552998</v>
       </c>
       <c r="KL7" t="inlineStr"/>
       <c r="KM7" t="inlineStr"/>
       <c r="KN7" t="inlineStr"/>
       <c r="KO7" t="n">
-        <v>87923.39535369554</v>
+        <v>85776.875672522</v>
       </c>
       <c r="KP7" t="inlineStr"/>
       <c r="KQ7" t="n">
         <v>402857.9999999925</v>
       </c>
       <c r="KR7" t="n">
-        <v>402959.6815954014</v>
+        <v>405096.9608853924</v>
       </c>
       <c r="KS7" t="inlineStr"/>
       <c r="KT7" t="inlineStr"/>
       <c r="KU7" t="inlineStr"/>
       <c r="KV7" t="n">
-        <v>374503.901078703</v>
+        <v>377458.5837272058</v>
       </c>
       <c r="KW7" t="inlineStr"/>
       <c r="KX7" t="n">
-        <v>21.01000000000022</v>
+        <v>25.06</v>
       </c>
       <c r="KY7" t="n">
-        <v>20.777438518704</v>
+        <v>22.1149266694223</v>
       </c>
       <c r="KZ7" t="inlineStr"/>
       <c r="LA7" t="inlineStr"/>
       <c r="LB7" t="inlineStr"/>
       <c r="LC7" t="n">
-        <v>21.00966714140915</v>
+        <v>22.30000102086164</v>
       </c>
       <c r="LD7" t="inlineStr"/>
     </row>
@@ -7495,85 +7495,85 @@
         <v>13871.79999999993</v>
       </c>
       <c r="C8" t="n">
-        <v>13905.38957269425</v>
+        <v>14187.02570942001</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>13871.44581087852</v>
+        <v>13813.55104209275</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
         <v>102283.6000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>101993.3250286954</v>
+        <v>102203.8020231367</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>102283.4035794748</v>
+        <v>102223.8184052587</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
         <v>13.53999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.58760772603531</v>
+        <v>13.67964139612385</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>13.54045260112848</v>
+        <v>13.48575196464832</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
         <v>7065.199999999997</v>
       </c>
       <c r="X8" t="n">
-        <v>7065.504588581539</v>
+        <v>7375.935537418548</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
-        <v>7091.324637833186</v>
+        <v>7232.53867379887</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>47947</v>
+        <v>51846.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>47953.97058514222</v>
+        <v>48454.71076652948</v>
       </c>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="n">
-        <v>48025.80607372752</v>
+        <v>51300.61972759303</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="n">
         <v>14.6400000000001</v>
       </c>
       <c r="AL8" t="n">
-        <v>14.50082412251884</v>
+        <v>16.02309404891428</v>
       </c>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="n">
-        <v>14.6400644534406</v>
+        <v>14.55000000037253</v>
       </c>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="n">
         <v>2679794.400000006</v>
       </c>
       <c r="AS8" t="n">
-        <v>2680149.417389898</v>
+        <v>3546715.856559221</v>
       </c>
       <c r="AT8" t="n">
         <v>3025712.69</v>
@@ -7585,16 +7585,16 @@
         <v>2916687.0096</v>
       </c>
       <c r="AW8" t="n">
-        <v>2833328.413220711</v>
+        <v>2724666.55858135</v>
       </c>
       <c r="AX8" t="n">
-        <v>2884865.046230859</v>
+        <v>2884865.046229327</v>
       </c>
       <c r="AY8" t="n">
         <v>11415355.80000019</v>
       </c>
       <c r="AZ8" t="n">
-        <v>11950265.97993211</v>
+        <v>13410139.1825575</v>
       </c>
       <c r="BA8" t="n">
         <v>12368396.15</v>
@@ -7606,31 +7606,31 @@
         <v>11922725.016</v>
       </c>
       <c r="BD8" t="n">
-        <v>11667003.06955427</v>
+        <v>11478259.55513161</v>
       </c>
       <c r="BE8" t="n">
-        <v>11883826.0061489</v>
+        <v>11883826.0061866</v>
       </c>
       <c r="BF8" t="n">
-        <v>23.07999999999993</v>
+        <v>25.12</v>
       </c>
       <c r="BG8" t="n">
-        <v>24.29971871610924</v>
+        <v>23.42434236665585</v>
       </c>
       <c r="BH8" t="inlineStr"/>
       <c r="BI8" t="inlineStr"/>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="n">
-        <v>23.08009296948948</v>
+        <v>24.70353180363401</v>
       </c>
       <c r="BL8" t="n">
-        <v>24.35800105702576</v>
+        <v>24.35522368819457</v>
       </c>
       <c r="BM8" t="n">
         <v>1679381.199999988</v>
       </c>
       <c r="BN8" t="n">
-        <v>1679474.360566434</v>
+        <v>2325337.978778716</v>
       </c>
       <c r="BO8" t="n">
         <v>1979907.27</v>
@@ -7642,16 +7642,16 @@
         <v>1908565.1568</v>
       </c>
       <c r="BR8" t="n">
-        <v>1648900.902295699</v>
+        <v>1716381.786709161</v>
       </c>
       <c r="BS8" t="n">
-        <v>1803968.535837104</v>
+        <v>1803968.535837103</v>
       </c>
       <c r="BT8" t="n">
         <v>6290233.199999988</v>
       </c>
       <c r="BU8" t="n">
-        <v>6461851.014648584</v>
+        <v>8426761.605288161</v>
       </c>
       <c r="BV8" t="n">
         <v>7083444.060000001</v>
@@ -7663,70 +7663,70 @@
         <v>6828205.9104</v>
       </c>
       <c r="BY8" t="n">
-        <v>6541471.331924808</v>
+        <v>6347436.587252664</v>
       </c>
       <c r="BZ8" t="n">
-        <v>6525456.616136086</v>
+        <v>6525456.616143356</v>
       </c>
       <c r="CA8" t="n">
-        <v>26.3599999999999</v>
+        <v>28.8</v>
       </c>
       <c r="CB8" t="n">
-        <v>27.79971766570842</v>
+        <v>26.8303005824323</v>
       </c>
       <c r="CC8" t="inlineStr"/>
       <c r="CD8" t="inlineStr"/>
       <c r="CE8" t="inlineStr"/>
       <c r="CF8" t="n">
-        <v>26.36008588436819</v>
+        <v>28.32383645716352</v>
       </c>
       <c r="CG8" t="n">
-        <v>27.81998647740091</v>
+        <v>27.81973560433703</v>
       </c>
       <c r="CH8" t="n">
-        <v>104.9860000000001</v>
+        <v>104.986</v>
       </c>
       <c r="CI8" t="n">
-        <v>104.9977352961993</v>
+        <v>99.5706637729896</v>
       </c>
       <c r="CJ8" t="inlineStr"/>
       <c r="CK8" t="inlineStr"/>
       <c r="CL8" t="inlineStr"/>
       <c r="CM8" t="n">
-        <v>104.9860158157185</v>
+        <v>104.7200069158082</v>
       </c>
       <c r="CN8" t="inlineStr"/>
       <c r="CO8" t="n">
         <v>105.862</v>
       </c>
       <c r="CP8" t="n">
-        <v>105.8656400918877</v>
+        <v>101.9625879439012</v>
       </c>
       <c r="CQ8" t="inlineStr"/>
       <c r="CR8" t="inlineStr"/>
       <c r="CS8" t="inlineStr"/>
       <c r="CT8" t="n">
-        <v>105.8619812889627</v>
+        <v>105.4700069853955</v>
       </c>
       <c r="CU8" t="inlineStr"/>
       <c r="CV8" t="n">
         <v>-0.8660000000000423</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0.8830914972805842</v>
+        <v>-0.6614136196246765</v>
       </c>
       <c r="CX8" t="inlineStr"/>
       <c r="CY8" t="inlineStr"/>
       <c r="CZ8" t="inlineStr"/>
       <c r="DA8" t="n">
-        <v>-0.8660002422189896</v>
+        <v>-0.7399930701849738</v>
       </c>
       <c r="DB8" t="inlineStr"/>
       <c r="DC8" t="n">
         <v>718556.3999999985</v>
       </c>
       <c r="DD8" t="n">
-        <v>718575.4365393595</v>
+        <v>844705.4467960617</v>
       </c>
       <c r="DE8" t="n">
         <v>780966.6700000002</v>
@@ -7738,14 +7738,14 @@
         <v>752826.0528000001</v>
       </c>
       <c r="DH8" t="n">
-        <v>735547.5084124862</v>
+        <v>680093.0058650508</v>
       </c>
       <c r="DI8" t="inlineStr"/>
       <c r="DJ8" t="n">
         <v>1869610.399999991</v>
       </c>
       <c r="DK8" t="n">
-        <v>1869646.044546985</v>
+        <v>2128937.452214657</v>
       </c>
       <c r="DL8" t="n">
         <v>2078538</v>
@@ -7757,66 +7757,66 @@
         <v>2003641.92</v>
       </c>
       <c r="DO8" t="n">
-        <v>1886381.270968549</v>
+        <v>1801660.431686136</v>
       </c>
       <c r="DP8" t="inlineStr"/>
       <c r="DQ8" t="n">
         <v>38.57999999999993</v>
       </c>
       <c r="DR8" t="n">
-        <v>38.57426810907742</v>
+        <v>39.64606365312216</v>
       </c>
       <c r="DS8" t="inlineStr"/>
       <c r="DT8" t="inlineStr"/>
       <c r="DU8" t="inlineStr"/>
       <c r="DV8" t="n">
-        <v>38.57999987302966</v>
+        <v>37.80992806038509</v>
       </c>
       <c r="DW8" t="inlineStr"/>
       <c r="DX8" t="n">
         <v>203411.2000000011</v>
       </c>
       <c r="DY8" t="n">
-        <v>203323.0463784037</v>
+        <v>207606.3416789804</v>
       </c>
       <c r="DZ8" t="inlineStr"/>
       <c r="EA8" t="inlineStr"/>
       <c r="EB8" t="inlineStr"/>
       <c r="EC8" t="n">
-        <v>158581.7808775099</v>
+        <v>208234.0497590654</v>
       </c>
       <c r="ED8" t="inlineStr"/>
       <c r="EE8" t="n">
-        <v>1649571</v>
+        <v>1721330.2</v>
       </c>
       <c r="EF8" t="n">
-        <v>1647142.641329451</v>
+        <v>1637070.18619474</v>
       </c>
       <c r="EG8" t="inlineStr"/>
       <c r="EH8" t="inlineStr"/>
       <c r="EI8" t="inlineStr"/>
       <c r="EJ8" t="n">
-        <v>1601187.844855125</v>
+        <v>1731633.914230091</v>
       </c>
       <c r="EK8" t="inlineStr"/>
       <c r="EL8" t="n">
         <v>12.28000000000009</v>
       </c>
       <c r="EM8" t="n">
-        <v>12.28246600321819</v>
+        <v>12.33486822321066</v>
       </c>
       <c r="EN8" t="inlineStr"/>
       <c r="EO8" t="inlineStr"/>
       <c r="EP8" t="inlineStr"/>
       <c r="EQ8" t="n">
-        <v>6.300000122189541</v>
+        <v>12.24586053046822</v>
       </c>
       <c r="ER8" t="inlineStr"/>
       <c r="ES8" t="n">
         <v>194.2600000000002</v>
       </c>
       <c r="ET8" t="n">
-        <v>194.3190544824137</v>
+        <v>277.426278119375</v>
       </c>
       <c r="EU8" t="n">
         <v>224.697</v>
@@ -7828,16 +7828,16 @@
         <v>216.60048</v>
       </c>
       <c r="EX8" t="n">
-        <v>206.2751200332762</v>
+        <v>197.4499993589996</v>
       </c>
       <c r="EY8" t="n">
-        <v>210.8717070625267</v>
+        <v>210.7496224727164</v>
       </c>
       <c r="EZ8" t="n">
         <v>112.3200000000015</v>
       </c>
       <c r="FA8" t="n">
-        <v>117.5552889400588</v>
+        <v>140.7316880534208</v>
       </c>
       <c r="FB8" t="n">
         <v>123.299</v>
@@ -7849,31 +7849,31 @@
         <v>118.85616</v>
       </c>
       <c r="FE8" t="n">
-        <v>112.3200057115608</v>
+        <v>112.8999999940395</v>
       </c>
       <c r="FF8" t="n">
-        <v>117.2819834270825</v>
+        <v>117.2662651499245</v>
       </c>
       <c r="FG8" t="n">
-        <v>1.680000000000007</v>
+        <v>1.88</v>
       </c>
       <c r="FH8" t="n">
-        <v>1.680498828614009</v>
+        <v>1.72943930442895</v>
       </c>
       <c r="FI8" t="inlineStr"/>
       <c r="FJ8" t="inlineStr"/>
       <c r="FK8" t="inlineStr"/>
       <c r="FL8" t="n">
-        <v>1.680295924952028</v>
+        <v>1.840324023067271</v>
       </c>
       <c r="FM8" t="n">
-        <v>1.800000000000006</v>
+        <v>1.699993339604633</v>
       </c>
       <c r="FN8" t="n">
-        <v>537329.8000000007</v>
+        <v>566029.8</v>
       </c>
       <c r="FO8" t="n">
-        <v>537464.8451475528</v>
+        <v>534433.7593204151</v>
       </c>
       <c r="FP8" t="n">
         <v>714577.6000000001</v>
@@ -7885,7 +7885,7 @@
         <v>688829.184</v>
       </c>
       <c r="FS8" t="n">
-        <v>526709.3436173183</v>
+        <v>578081.8413439614</v>
       </c>
       <c r="FT8" t="n">
         <v>674522.7139641745</v>
@@ -7894,7 +7894,7 @@
         <v>3773527.399999976</v>
       </c>
       <c r="FV8" t="n">
-        <v>3941001.730907206</v>
+        <v>4689786.76371632</v>
       </c>
       <c r="FW8" t="n">
         <v>4142398.700000001</v>
@@ -7906,31 +7906,31 @@
         <v>3993135.408</v>
       </c>
       <c r="FZ8" t="n">
-        <v>3824225.518602356</v>
+        <v>3799714.699740755</v>
       </c>
       <c r="GA8" t="n">
-        <v>3918067.566832493</v>
+        <v>3918067.566831262</v>
       </c>
       <c r="GB8" t="n">
-        <v>13.09999999999991</v>
+        <v>19.02</v>
       </c>
       <c r="GC8" t="n">
-        <v>13.10733269975556</v>
+        <v>15.86462974348708</v>
       </c>
       <c r="GD8" t="inlineStr"/>
       <c r="GE8" t="inlineStr"/>
       <c r="GF8" t="inlineStr"/>
       <c r="GG8" t="n">
-        <v>13.1000075301947</v>
+        <v>17.84291163528007</v>
       </c>
       <c r="GH8" t="n">
-        <v>17.91739424196985</v>
+        <v>17.91634335084555</v>
       </c>
       <c r="GI8" t="n">
         <v>18751.39999999991</v>
       </c>
       <c r="GJ8" t="n">
-        <v>19488.22248860616</v>
+        <v>23754.61004587451</v>
       </c>
       <c r="GK8" t="n">
         <v>20730.93</v>
@@ -7942,16 +7942,16 @@
         <v>19983.9312</v>
       </c>
       <c r="GN8" t="n">
-        <v>18752.29439222789</v>
+        <v>18974.20196560491</v>
       </c>
       <c r="GO8" t="n">
-        <v>20162.82273854222</v>
+        <v>20168.49998386005</v>
       </c>
       <c r="GP8" t="n">
         <v>42675.59999999963</v>
       </c>
       <c r="GQ8" t="n">
-        <v>44770.65386107071</v>
+        <v>54639.95716174087</v>
       </c>
       <c r="GR8" t="n">
         <v>47372.71000000001</v>
@@ -7963,31 +7963,31 @@
         <v>45665.72640000001</v>
       </c>
       <c r="GU8" t="n">
-        <v>44762.87191456305</v>
+        <v>43249.17728772082</v>
       </c>
       <c r="GV8" t="n">
-        <v>48337.18616953294</v>
+        <v>47475.35112750895</v>
       </c>
       <c r="GW8" t="n">
         <v>44</v>
       </c>
       <c r="GX8" t="n">
-        <v>43.59971188167692</v>
+        <v>44.52810720786898</v>
       </c>
       <c r="GY8" t="inlineStr"/>
       <c r="GZ8" t="inlineStr"/>
       <c r="HA8" t="inlineStr"/>
       <c r="HB8" t="n">
-        <v>44.00064274351424</v>
+        <v>43.96164261952919</v>
       </c>
       <c r="HC8" t="n">
-        <v>44.18495798395914</v>
+        <v>44.18336420441112</v>
       </c>
       <c r="HD8" t="n">
         <v>143689.6000000015</v>
       </c>
       <c r="HE8" t="n">
-        <v>140021.8945723612</v>
+        <v>169921.6044977431</v>
       </c>
       <c r="HF8" t="n">
         <v>160678.32</v>
@@ -7999,14 +7999,14 @@
         <v>154888.5888</v>
       </c>
       <c r="HI8" t="n">
-        <v>142062.7911582786</v>
+        <v>142849.0992030513</v>
       </c>
       <c r="HJ8" t="inlineStr"/>
       <c r="HK8" t="n">
         <v>523235.0000000075</v>
       </c>
       <c r="HL8" t="n">
-        <v>522911.0211992169</v>
+        <v>632241.6772583999</v>
       </c>
       <c r="HM8" t="n">
         <v>568905.7000000001</v>
@@ -8018,111 +8018,111 @@
         <v>548406.2880000001</v>
       </c>
       <c r="HP8" t="n">
-        <v>515206.6518388338</v>
+        <v>523558.7750341254</v>
       </c>
       <c r="HQ8" t="inlineStr"/>
       <c r="HR8" t="n">
-        <v>26.93999999999983</v>
+        <v>29.74</v>
       </c>
       <c r="HS8" t="n">
-        <v>26.92463109450107</v>
+        <v>27.58749483473317</v>
       </c>
       <c r="HT8" t="inlineStr"/>
       <c r="HU8" t="inlineStr"/>
       <c r="HV8" t="inlineStr"/>
       <c r="HW8" t="n">
-        <v>26.94000007773363</v>
+        <v>28.20404213472997</v>
       </c>
       <c r="HX8" t="inlineStr"/>
       <c r="HY8" t="n">
         <v>359346.799999997</v>
       </c>
       <c r="HZ8" t="n">
-        <v>332592.447325342</v>
+        <v>391832.4454313504</v>
       </c>
       <c r="IA8" t="inlineStr"/>
       <c r="IB8" t="inlineStr"/>
       <c r="IC8" t="inlineStr"/>
       <c r="ID8" t="n">
-        <v>348757.813510859</v>
+        <v>349676.8473228305</v>
       </c>
       <c r="IE8" t="inlineStr"/>
       <c r="IF8" t="n">
         <v>1012934.200000018</v>
       </c>
       <c r="IG8" t="n">
-        <v>972433.3283232789</v>
+        <v>1201711.789769196</v>
       </c>
       <c r="IH8" t="inlineStr"/>
       <c r="II8" t="inlineStr"/>
       <c r="IJ8" t="inlineStr"/>
       <c r="IK8" t="n">
-        <v>997625.9535660243</v>
+        <v>995195.2908466649</v>
       </c>
       <c r="IL8" t="inlineStr"/>
       <c r="IM8" t="n">
-        <v>35.34000000000003</v>
+        <v>36.66</v>
       </c>
       <c r="IN8" t="n">
-        <v>34.09780634188227</v>
+        <v>35.43782083429051</v>
       </c>
       <c r="IO8" t="inlineStr"/>
       <c r="IP8" t="inlineStr"/>
       <c r="IQ8" t="inlineStr"/>
       <c r="IR8" t="n">
-        <v>34.1000000074506</v>
+        <v>35.70000201192095</v>
       </c>
       <c r="IS8" t="inlineStr"/>
       <c r="IT8" t="n">
-        <v>553872.3999999985</v>
+        <v>628571.6</v>
       </c>
       <c r="IU8" t="n">
-        <v>553842.3237501138</v>
+        <v>570683.6490280238</v>
       </c>
       <c r="IV8" t="inlineStr"/>
       <c r="IW8" t="inlineStr"/>
       <c r="IX8" t="inlineStr"/>
       <c r="IY8" t="n">
-        <v>529741.1031440857</v>
+        <v>609456.2885351107</v>
       </c>
       <c r="IZ8" t="n">
-        <v>615426.1307946867</v>
+        <v>615426.1307948618</v>
       </c>
       <c r="JA8" t="n">
-        <v>4933446.199999988</v>
+        <v>5179986.6</v>
       </c>
       <c r="JB8" t="n">
-        <v>4914796.054735284</v>
+        <v>4944992.156132804</v>
       </c>
       <c r="JC8" t="inlineStr"/>
       <c r="JD8" t="inlineStr"/>
       <c r="JE8" t="inlineStr"/>
       <c r="JF8" t="n">
-        <v>5030745.728363227</v>
+        <v>5123217.60361586</v>
       </c>
       <c r="JG8" t="n">
-        <v>5096952.76410502</v>
+        <v>5096952.764089177</v>
       </c>
       <c r="JH8" t="n">
-        <v>11.22000000000003</v>
+        <v>12.14</v>
       </c>
       <c r="JI8" t="n">
-        <v>11.22162778003799</v>
+        <v>11.34913455055513</v>
       </c>
       <c r="JJ8" t="inlineStr"/>
       <c r="JK8" t="inlineStr"/>
       <c r="JL8" t="inlineStr"/>
       <c r="JM8" t="n">
-        <v>11.21959428271873</v>
+        <v>11.90000701788117</v>
       </c>
       <c r="JN8" t="n">
-        <v>11.93305828167558</v>
+        <v>11.93254361775943</v>
       </c>
       <c r="JO8" t="n">
         <v>1330685.999999993</v>
       </c>
       <c r="JP8" t="n">
-        <v>1330906.932405309</v>
+        <v>1423296.745993642</v>
       </c>
       <c r="JQ8" t="n">
         <v>1826455.07</v>
@@ -8134,14 +8134,14 @@
         <v>1760642.3088</v>
       </c>
       <c r="JT8" t="n">
-        <v>1018092.777168306</v>
+        <v>1608475.519604794</v>
       </c>
       <c r="JU8" t="inlineStr"/>
       <c r="JV8" t="n">
         <v>6303794</v>
       </c>
       <c r="JW8" t="n">
-        <v>6303897.005662487</v>
+        <v>8231611.678647856</v>
       </c>
       <c r="JX8" t="n">
         <v>7097239.270000001</v>
@@ -8153,59 +8153,59 @@
         <v>6841504.036800001</v>
       </c>
       <c r="KA8" t="n">
-        <v>6451894.7409033</v>
+        <v>6352230.202003983</v>
       </c>
       <c r="KB8" t="inlineStr"/>
       <c r="KC8" t="n">
-        <v>20.27999999999997</v>
+        <v>23.64</v>
       </c>
       <c r="KD8" t="n">
-        <v>20.28732971273099</v>
+        <v>23.141241998007</v>
       </c>
       <c r="KE8" t="inlineStr"/>
       <c r="KF8" t="inlineStr"/>
       <c r="KG8" t="inlineStr"/>
       <c r="KH8" t="n">
-        <v>20.2801120734508</v>
+        <v>23.95974044808301</v>
       </c>
       <c r="KI8" t="inlineStr"/>
       <c r="KJ8" t="n">
         <v>90023</v>
       </c>
       <c r="KK8" t="n">
-        <v>90032.23263650172</v>
+        <v>91828.04985856476</v>
       </c>
       <c r="KL8" t="inlineStr"/>
       <c r="KM8" t="inlineStr"/>
       <c r="KN8" t="inlineStr"/>
       <c r="KO8" t="n">
-        <v>90489.59317910502</v>
+        <v>87125.13879173809</v>
       </c>
       <c r="KP8" t="inlineStr"/>
       <c r="KQ8" t="n">
         <v>429847.3999999911</v>
       </c>
       <c r="KR8" t="n">
-        <v>429956.0422843728</v>
+        <v>468497.4827938979</v>
       </c>
       <c r="KS8" t="inlineStr"/>
       <c r="KT8" t="inlineStr"/>
       <c r="KU8" t="inlineStr"/>
       <c r="KV8" t="n">
-        <v>392865.9075711699</v>
+        <v>400048.3069080741</v>
       </c>
       <c r="KW8" t="inlineStr"/>
       <c r="KX8" t="n">
-        <v>19.66000000000031</v>
+        <v>25.06</v>
       </c>
       <c r="KY8" t="n">
-        <v>19.31328829814863</v>
+        <v>21.59647043899406</v>
       </c>
       <c r="KZ8" t="inlineStr"/>
       <c r="LA8" t="inlineStr"/>
       <c r="LB8" t="inlineStr"/>
       <c r="LC8" t="n">
-        <v>19.65962186096629</v>
+        <v>22.30000202086164</v>
       </c>
       <c r="LD8" t="inlineStr"/>
     </row>
@@ -8217,85 +8217,85 @@
         <v>14071.59999999998</v>
       </c>
       <c r="C9" t="n">
-        <v>14117.00081903883</v>
+        <v>14621.16958491703</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>14071.15712426295</v>
+        <v>13985.86517046638</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
         <v>103237.1000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>102834.3257121625</v>
+        <v>103263.025213457</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>103236.8310184212</v>
+        <v>103179.5907938166</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
         <v>13.61000000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.67454388885599</v>
+        <v>13.80575248129758</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>13.61061672076142</v>
+        <v>13.53278719425682</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
         <v>7121.199999999997</v>
       </c>
       <c r="X9" t="n">
-        <v>7121.58050731867</v>
+        <v>7595.809811454645</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
-        <v>7081.740757519077</v>
+        <v>7286.761477695221</v>
       </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>46972.10000000009</v>
+        <v>51846.6</v>
       </c>
       <c r="AE9" t="n">
-        <v>46981.90202591278</v>
+        <v>47999.32166927235</v>
       </c>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="n">
-        <v>47074.13067557869</v>
+        <v>51300.62108953188</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="n">
         <v>15.00000000000011</v>
       </c>
       <c r="AL9" t="n">
-        <v>14.80082389322384</v>
+        <v>17.57527366000002</v>
       </c>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="n">
-        <v>15.00007987159584</v>
+        <v>14.87500000037253</v>
       </c>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="n">
         <v>2798687.400000006</v>
       </c>
       <c r="AS9" t="n">
-        <v>2799107.108298196</v>
+        <v>4276930.771946238</v>
       </c>
       <c r="AT9" t="n">
         <v>3328283.959000001</v>
@@ -8307,16 +8307,16 @@
         <v>3208355.710560001</v>
       </c>
       <c r="AW9" t="n">
-        <v>2999544.811316572</v>
+        <v>2836812.711985963</v>
       </c>
       <c r="AX9" t="n">
-        <v>3074803.63684802</v>
+        <v>3074803.636845752</v>
       </c>
       <c r="AY9" t="n">
         <v>12068714</v>
       </c>
       <c r="AZ9" t="n">
-        <v>12793833.07304618</v>
+        <v>16185963.05019653</v>
       </c>
       <c r="BA9" t="n">
         <v>13605235.765</v>
@@ -8328,31 +8328,31 @@
         <v>13114997.5176</v>
       </c>
       <c r="BD9" t="n">
-        <v>12389301.54776601</v>
+        <v>12106599.08848532</v>
       </c>
       <c r="BE9" t="n">
-        <v>12723401.99964812</v>
+        <v>12723401.99971511</v>
       </c>
       <c r="BF9" t="n">
-        <v>22.56999999999994</v>
+        <v>25.12</v>
       </c>
       <c r="BG9" t="n">
-        <v>24.19971828220712</v>
+        <v>23.1777424051599</v>
       </c>
       <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="n">
-        <v>22.57011540570623</v>
+        <v>24.70353280363402</v>
       </c>
       <c r="BL9" t="n">
-        <v>24.28576188674644</v>
+        <v>24.28170395329648</v>
       </c>
       <c r="BM9" t="n">
         <v>1719536.599999994</v>
       </c>
       <c r="BN9" t="n">
-        <v>1719630.27724914</v>
+        <v>2780168.43176547</v>
       </c>
       <c r="BO9" t="n">
         <v>2177897.997</v>
@@ -8364,16 +8364,16 @@
         <v>2099421.672480001</v>
       </c>
       <c r="BR9" t="n">
-        <v>1655377.697528155</v>
+        <v>1756514.453158002</v>
       </c>
       <c r="BS9" t="n">
-        <v>1887116.591315351</v>
+        <v>1887116.59131535</v>
       </c>
       <c r="BT9" t="n">
         <v>6542273.300000012</v>
       </c>
       <c r="BU9" t="n">
-        <v>6765319.3339687</v>
+        <v>10098305.89166562</v>
       </c>
       <c r="BV9" t="n">
         <v>7791788.466000003</v>
@@ -8385,70 +8385,70 @@
         <v>7511026.501440001</v>
       </c>
       <c r="BY9" t="n">
-        <v>6884232.00636101</v>
+        <v>6594255.640472918</v>
       </c>
       <c r="BZ9" t="n">
-        <v>6859043.605787637</v>
+        <v>6859043.60579868</v>
       </c>
       <c r="CA9" t="n">
-        <v>25.75</v>
+        <v>28.8</v>
       </c>
       <c r="CB9" t="n">
-        <v>27.69971586509241</v>
+        <v>26.54072775464575</v>
       </c>
       <c r="CC9" t="inlineStr"/>
       <c r="CD9" t="inlineStr"/>
       <c r="CE9" t="inlineStr"/>
       <c r="CF9" t="n">
-        <v>25.75010393479837</v>
+        <v>28.32383745716352</v>
       </c>
       <c r="CG9" t="n">
-        <v>27.72974386353299</v>
+        <v>27.72937317778411</v>
       </c>
       <c r="CH9" t="n">
         <v>105.335</v>
       </c>
       <c r="CI9" t="n">
-        <v>105.349285236481</v>
+        <v>98.90358107441864</v>
       </c>
       <c r="CJ9" t="inlineStr"/>
       <c r="CK9" t="inlineStr"/>
       <c r="CL9" t="inlineStr"/>
       <c r="CM9" t="n">
-        <v>105.3350183446117</v>
+        <v>104.7200079158082</v>
       </c>
       <c r="CN9" t="inlineStr"/>
       <c r="CO9" t="n">
         <v>106.009</v>
       </c>
       <c r="CP9" t="n">
-        <v>106.0139203944827</v>
+        <v>101.3323840641993</v>
       </c>
       <c r="CQ9" t="inlineStr"/>
       <c r="CR9" t="inlineStr"/>
       <c r="CS9" t="inlineStr"/>
       <c r="CT9" t="n">
-        <v>106.0089790347097</v>
+        <v>105.4700079853956</v>
       </c>
       <c r="CU9" t="inlineStr"/>
       <c r="CV9" t="n">
         <v>-0.6620000000000346</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0.6840023298919634</v>
+        <v>-0.6631326261917502</v>
       </c>
       <c r="CX9" t="inlineStr"/>
       <c r="CY9" t="inlineStr"/>
       <c r="CZ9" t="inlineStr"/>
       <c r="DA9" t="n">
-        <v>-0.6620002775846546</v>
+        <v>-0.7399920701849738</v>
       </c>
       <c r="DB9" t="inlineStr"/>
       <c r="DC9" t="n">
         <v>747545.8999999985</v>
       </c>
       <c r="DD9" t="n">
-        <v>747548.1653452049</v>
+        <v>983634.1952960797</v>
       </c>
       <c r="DE9" t="n">
         <v>859063.3370000003</v>
@@ -8460,14 +8460,14 @@
         <v>828108.6580800001</v>
       </c>
       <c r="DH9" t="n">
-        <v>771222.993017054</v>
+        <v>697285.437338704</v>
       </c>
       <c r="DI9" t="inlineStr"/>
       <c r="DJ9" t="n">
         <v>1930377.700000003</v>
       </c>
       <c r="DK9" t="n">
-        <v>1930375.556416765</v>
+        <v>2411915.159516861</v>
       </c>
       <c r="DL9" t="n">
         <v>2286391.800000001</v>
@@ -8479,66 +8479,66 @@
         <v>2204006.112</v>
       </c>
       <c r="DO9" t="n">
-        <v>1955510.192517266</v>
+        <v>1843321.153559491</v>
       </c>
       <c r="DP9" t="inlineStr"/>
       <c r="DQ9" t="n">
         <v>38.96999999999991</v>
       </c>
       <c r="DR9" t="n">
-        <v>38.96265369955535</v>
+        <v>40.58942788419153</v>
       </c>
       <c r="DS9" t="inlineStr"/>
       <c r="DT9" t="inlineStr"/>
       <c r="DU9" t="inlineStr"/>
       <c r="DV9" t="n">
-        <v>38.96999984221623</v>
+        <v>37.90992806038509</v>
       </c>
       <c r="DW9" t="inlineStr"/>
       <c r="DX9" t="n">
         <v>209905.0999999996</v>
       </c>
       <c r="DY9" t="n">
-        <v>209796.324995275</v>
+        <v>219084.5058390028</v>
       </c>
       <c r="DZ9" t="inlineStr"/>
       <c r="EA9" t="inlineStr"/>
       <c r="EB9" t="inlineStr"/>
       <c r="EC9" t="n">
-        <v>147123.5494019207</v>
+        <v>214091.9056893598</v>
       </c>
       <c r="ED9" t="inlineStr"/>
       <c r="EE9" t="n">
-        <v>1631631.200000003</v>
+        <v>1721330.2</v>
       </c>
       <c r="EF9" t="n">
-        <v>1628778.88435552</v>
+        <v>1624310.22756145</v>
       </c>
       <c r="EG9" t="inlineStr"/>
       <c r="EH9" t="inlineStr"/>
       <c r="EI9" t="inlineStr"/>
       <c r="EJ9" t="n">
-        <v>1577737.334121887</v>
+        <v>1731633.887624188</v>
       </c>
       <c r="EK9" t="inlineStr"/>
       <c r="EL9" t="n">
         <v>12.7700000000001</v>
       </c>
       <c r="EM9" t="n">
-        <v>12.77286906474496</v>
+        <v>13.08497821662186</v>
       </c>
       <c r="EN9" t="inlineStr"/>
       <c r="EO9" t="inlineStr"/>
       <c r="EP9" t="inlineStr"/>
       <c r="EQ9" t="n">
-        <v>4.500000168383149</v>
+        <v>12.62081922746702</v>
       </c>
       <c r="ER9" t="inlineStr"/>
       <c r="ES9" t="n">
         <v>200.7199999999993</v>
       </c>
       <c r="ET9" t="n">
-        <v>200.7899916688052</v>
+        <v>330.7427779315286</v>
       </c>
       <c r="EU9" t="n">
         <v>247.1667</v>
@@ -8550,16 +8550,16 @@
         <v>238.260528</v>
       </c>
       <c r="EX9" t="n">
-        <v>216.5626800166546</v>
+        <v>203.3249990734629</v>
       </c>
       <c r="EY9" t="n">
-        <v>223.9330179482238</v>
+        <v>223.6407655277585</v>
       </c>
       <c r="EZ9" t="n">
         <v>118.0800000000017</v>
       </c>
       <c r="FA9" t="n">
-        <v>125.1669120049241</v>
+        <v>170.0176296393373</v>
       </c>
       <c r="FB9" t="n">
         <v>135.6289</v>
@@ -8571,31 +8571,31 @@
         <v>130.741776</v>
       </c>
       <c r="FE9" t="n">
-        <v>118.080006813724</v>
+        <v>118.3999999940395</v>
       </c>
       <c r="FF9" t="n">
-        <v>125.4001681923191</v>
+        <v>125.354059214965</v>
       </c>
       <c r="FG9" t="n">
-        <v>1.629999999999995</v>
+        <v>1.88</v>
       </c>
       <c r="FH9" t="n">
-        <v>1.630740242129735</v>
+        <v>1.708339958838306</v>
       </c>
       <c r="FI9" t="inlineStr"/>
       <c r="FJ9" t="inlineStr"/>
       <c r="FK9" t="inlineStr"/>
       <c r="FL9" t="n">
-        <v>1.630382611324721</v>
+        <v>1.840325023067271</v>
       </c>
       <c r="FM9" t="n">
-        <v>1.800000000000006</v>
+        <v>1.599987826763234</v>
       </c>
       <c r="FN9" t="n">
-        <v>530154.8000000007</v>
+        <v>566029.8</v>
       </c>
       <c r="FO9" t="n">
-        <v>530318.5501270083</v>
+        <v>533207.6094388653</v>
       </c>
       <c r="FP9" t="n">
         <v>786035.3600000002</v>
@@ -8607,7 +8607,7 @@
         <v>757712.1024000001</v>
       </c>
       <c r="FS9" t="n">
-        <v>515622.33095875</v>
+        <v>578080.5939897642</v>
       </c>
       <c r="FT9" t="n">
         <v>716484.9579263865</v>
@@ -8616,7 +8616,7 @@
         <v>3966088.600000024</v>
       </c>
       <c r="FV9" t="n">
-        <v>4193082.313631431</v>
+        <v>5660561.666941486</v>
       </c>
       <c r="FW9" t="n">
         <v>4556638.570000001</v>
@@ -8628,31 +8628,31 @@
         <v>4392448.9488</v>
       </c>
       <c r="FZ9" t="n">
-        <v>4024604.516950067</v>
+        <v>3987870.357984583</v>
       </c>
       <c r="GA9" t="n">
-        <v>4165159.94925764</v>
+        <v>4165159.94925549</v>
       </c>
       <c r="GB9" t="n">
-        <v>11.61999999999989</v>
+        <v>19.02</v>
       </c>
       <c r="GC9" t="n">
-        <v>11.63030438336981</v>
+        <v>15.73582817913293</v>
       </c>
       <c r="GD9" t="inlineStr"/>
       <c r="GE9" t="inlineStr"/>
       <c r="GF9" t="inlineStr"/>
       <c r="GG9" t="n">
-        <v>11.62000963531406</v>
+        <v>17.84291263528007</v>
       </c>
       <c r="GH9" t="n">
-        <v>18.22622094680393</v>
+        <v>18.22462926797389</v>
       </c>
       <c r="GI9" t="n">
         <v>19647.10000000009</v>
       </c>
       <c r="GJ9" t="n">
-        <v>20664.22366949528</v>
+        <v>28646.95599644939</v>
       </c>
       <c r="GK9" t="n">
         <v>22804.02300000001</v>
@@ -8664,16 +8664,16 @@
         <v>21982.32432</v>
       </c>
       <c r="GN9" t="n">
-        <v>19648.14199933477</v>
+        <v>19895.44117615771</v>
       </c>
       <c r="GO9" t="n">
-        <v>22176.38551894613</v>
+        <v>22193.0665728068</v>
       </c>
       <c r="GP9" t="n">
         <v>44645.5</v>
       </c>
       <c r="GQ9" t="n">
-        <v>47576.64949645195</v>
+        <v>65872.28802912519</v>
       </c>
       <c r="GR9" t="n">
         <v>52109.98100000001</v>
@@ -8685,31 +8685,31 @@
         <v>50232.29904000001</v>
       </c>
       <c r="GU9" t="n">
-        <v>47568.81846895495</v>
+        <v>45300.15133297545</v>
       </c>
       <c r="GV9" t="n">
-        <v>55187.16481253241</v>
+        <v>52941.80959197898</v>
       </c>
       <c r="GW9" t="n">
         <v>44.09999999999999</v>
       </c>
       <c r="GX9" t="n">
-        <v>43.49971251939082</v>
+        <v>44.79143416037383</v>
       </c>
       <c r="GY9" t="inlineStr"/>
       <c r="GZ9" t="inlineStr"/>
       <c r="HA9" t="inlineStr"/>
       <c r="HB9" t="n">
-        <v>44.1007507397616</v>
+        <v>44.03664261952919</v>
       </c>
       <c r="HC9" t="n">
-        <v>44.40091810342663</v>
+        <v>44.39754835953531</v>
       </c>
       <c r="HD9" t="n">
         <v>148762.3000000007</v>
       </c>
       <c r="HE9" t="n">
-        <v>143631.886579636</v>
+        <v>197942.9328274353</v>
       </c>
       <c r="HF9" t="n">
         <v>176746.1520000001</v>
@@ -8721,14 +8721,14 @@
         <v>170377.44768</v>
       </c>
       <c r="HI9" t="n">
-        <v>146608.6817648768</v>
+        <v>147857.8485017922</v>
       </c>
       <c r="HJ9" t="inlineStr"/>
       <c r="HK9" t="n">
         <v>550037.1000000015</v>
       </c>
       <c r="HL9" t="n">
-        <v>549571.8001609137</v>
+        <v>759172.6390614187</v>
       </c>
       <c r="HM9" t="n">
         <v>625796.2700000001</v>
@@ -8740,111 +8740,111 @@
         <v>603246.9168000001</v>
       </c>
       <c r="HP9" t="n">
-        <v>538129.7955802309</v>
+        <v>550260.4214533556</v>
       </c>
       <c r="HQ9" t="inlineStr"/>
       <c r="HR9" t="n">
-        <v>26.24000000000001</v>
+        <v>29.74</v>
       </c>
       <c r="HS9" t="n">
-        <v>26.21942885630802</v>
+        <v>27.24200494108626</v>
       </c>
       <c r="HT9" t="inlineStr"/>
       <c r="HU9" t="inlineStr"/>
       <c r="HV9" t="inlineStr"/>
       <c r="HW9" t="n">
-        <v>26.24000021432895</v>
+        <v>28.20404313472997</v>
       </c>
       <c r="HX9" t="inlineStr"/>
       <c r="HY9" t="n">
         <v>371446</v>
       </c>
       <c r="HZ9" t="n">
-        <v>334542.477104457</v>
+        <v>435930.0610743038</v>
       </c>
       <c r="IA9" t="inlineStr"/>
       <c r="IB9" t="inlineStr"/>
       <c r="IC9" t="inlineStr"/>
       <c r="ID9" t="n">
-        <v>356563.4638108725</v>
+        <v>359403.4206394937</v>
       </c>
       <c r="IE9" t="inlineStr"/>
       <c r="IF9" t="n">
         <v>1053920.400000006</v>
       </c>
       <c r="IG9" t="n">
-        <v>997929.2779501823</v>
+        <v>1410512.127261046</v>
       </c>
       <c r="IH9" t="inlineStr"/>
       <c r="II9" t="inlineStr"/>
       <c r="IJ9" t="inlineStr"/>
       <c r="IK9" t="n">
-        <v>1033238.762192481</v>
+        <v>1031688.711030488</v>
       </c>
       <c r="IL9" t="inlineStr"/>
       <c r="IM9" t="n">
-        <v>35.00999999999999</v>
+        <v>36.66</v>
       </c>
       <c r="IN9" t="n">
-        <v>33.29780584992471</v>
+        <v>35.18783628724864</v>
       </c>
       <c r="IO9" t="inlineStr"/>
       <c r="IP9" t="inlineStr"/>
       <c r="IQ9" t="inlineStr"/>
       <c r="IR9" t="n">
-        <v>33.30000000894072</v>
+        <v>35.70000301192095</v>
       </c>
       <c r="IS9" t="inlineStr"/>
       <c r="IT9" t="n">
-        <v>535197.6000000015</v>
+        <v>628571.6</v>
       </c>
       <c r="IU9" t="n">
-        <v>535163.9715785988</v>
+        <v>564422.7743586161</v>
       </c>
       <c r="IV9" t="inlineStr"/>
       <c r="IW9" t="inlineStr"/>
       <c r="IX9" t="inlineStr"/>
       <c r="IY9" t="n">
-        <v>507619.496554075</v>
+        <v>609456.5699972323</v>
       </c>
       <c r="IZ9" t="n">
-        <v>618880.7029945476</v>
+        <v>618880.7029949612</v>
       </c>
       <c r="JA9" t="n">
-        <v>4871811.099999994</v>
+        <v>5179986.6</v>
       </c>
       <c r="JB9" t="n">
-        <v>4829898.121857229</v>
+        <v>4902487.85609736</v>
       </c>
       <c r="JC9" t="inlineStr"/>
       <c r="JD9" t="inlineStr"/>
       <c r="JE9" t="inlineStr"/>
       <c r="JF9" t="n">
-        <v>5007954.395917729</v>
+        <v>5123221.440575207</v>
       </c>
       <c r="JG9" t="n">
-        <v>5145884.964562366</v>
+        <v>5145884.964480083</v>
       </c>
       <c r="JH9" t="n">
-        <v>10.99000000000001</v>
+        <v>12.14</v>
       </c>
       <c r="JI9" t="n">
-        <v>10.99227509491525</v>
+        <v>11.23424202227862</v>
       </c>
       <c r="JJ9" t="inlineStr"/>
       <c r="JK9" t="inlineStr"/>
       <c r="JL9" t="inlineStr"/>
       <c r="JM9" t="n">
-        <v>10.98947522195317</v>
+        <v>11.90000801788116</v>
       </c>
       <c r="JN9" t="n">
-        <v>11.9421411520918</v>
+        <v>11.94139509224235</v>
       </c>
       <c r="JO9" t="n">
         <v>1356494.399999999</v>
       </c>
       <c r="JP9" t="n">
-        <v>1356785.641402108</v>
+        <v>1481213.526757197</v>
       </c>
       <c r="JQ9" t="n">
         <v>2009100.577000001</v>
@@ -8856,14 +8856,14 @@
         <v>1936706.53968</v>
       </c>
       <c r="JT9" t="n">
-        <v>976523.8882354316</v>
+        <v>1658825.681780784</v>
       </c>
       <c r="JU9" t="inlineStr"/>
       <c r="JV9" t="n">
         <v>6582319.299999952</v>
       </c>
       <c r="JW9" t="n">
-        <v>6582246.60218074</v>
+        <v>9899847.155359622</v>
       </c>
       <c r="JX9" t="n">
         <v>7806963.197000002</v>
@@ -8875,59 +8875,59 @@
         <v>7525654.440480001</v>
       </c>
       <c r="KA9" t="n">
-        <v>6811616.91499377</v>
+        <v>6595451.868423262</v>
       </c>
       <c r="KB9" t="inlineStr"/>
       <c r="KC9" t="n">
-        <v>19.44000000000005</v>
+        <v>23.64</v>
       </c>
       <c r="KD9" t="n">
-        <v>19.45037750638232</v>
+        <v>23.13424816407533</v>
       </c>
       <c r="KE9" t="inlineStr"/>
       <c r="KF9" t="inlineStr"/>
       <c r="KG9" t="inlineStr"/>
       <c r="KH9" t="n">
-        <v>19.44014082693851</v>
+        <v>23.95974144808301</v>
       </c>
       <c r="KI9" t="inlineStr"/>
       <c r="KJ9" t="n">
         <v>92564.40000000037</v>
       </c>
       <c r="KK9" t="n">
-        <v>92573.84233145283</v>
+        <v>96418.22788394093</v>
       </c>
       <c r="KL9" t="inlineStr"/>
       <c r="KM9" t="inlineStr"/>
       <c r="KN9" t="inlineStr"/>
       <c r="KO9" t="n">
-        <v>93055.7910045145</v>
+        <v>88473.4019109542</v>
       </c>
       <c r="KP9" t="inlineStr"/>
       <c r="KQ9" t="n">
         <v>456836.799999997</v>
       </c>
       <c r="KR9" t="n">
-        <v>456952.4029733443</v>
+        <v>547164.6379886977</v>
       </c>
       <c r="KS9" t="inlineStr"/>
       <c r="KT9" t="inlineStr"/>
       <c r="KU9" t="inlineStr"/>
       <c r="KV9" t="n">
-        <v>411227.9140636368</v>
+        <v>422638.0300889424</v>
       </c>
       <c r="KW9" t="inlineStr"/>
       <c r="KX9" t="n">
-        <v>18.30999999999995</v>
+        <v>25.06</v>
       </c>
       <c r="KY9" t="n">
-        <v>17.84913807759327</v>
+        <v>21.20489585333064</v>
       </c>
       <c r="KZ9" t="inlineStr"/>
       <c r="LA9" t="inlineStr"/>
       <c r="LB9" t="inlineStr"/>
       <c r="LC9" t="n">
-        <v>18.30957658052343</v>
+        <v>22.30000302086164</v>
       </c>
       <c r="LD9" t="inlineStr"/>
     </row>
@@ -8939,85 +8939,85 @@
         <v>14271.39999999997</v>
       </c>
       <c r="C10" t="n">
-        <v>14328.61206538341</v>
+        <v>15125.05405346447</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>14270.86843764738</v>
+        <v>14158.17929884002</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>104190.6000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>103675.3263956296</v>
+        <v>104402.8245681949</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>104190.2584573676</v>
+        <v>104135.3631823746</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
         <v>13.68000000000001</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.76148005167667</v>
+        <v>13.9402758027509</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>13.68078084039436</v>
+        <v>13.57982242386533</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
         <v>7177.199999999997</v>
       </c>
       <c r="X10" t="n">
-        <v>7177.656426055803</v>
+        <v>7855.331149717425</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="n">
-        <v>7072.156877204968</v>
+        <v>7340.984281591572</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>45997.19999999995</v>
+        <v>51846.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>46009.83346668334</v>
+        <v>47632.0517033388</v>
       </c>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="n">
-        <v>46122.45527742986</v>
+        <v>51300.62245147074</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="n">
         <v>15.36000000000001</v>
       </c>
       <c r="AL10" t="n">
-        <v>15.10082366392884</v>
+        <v>19.41136650712361</v>
       </c>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="n">
-        <v>15.36009528975107</v>
+        <v>15.20000000037253</v>
       </c>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="n">
         <v>2917580.400000006</v>
       </c>
       <c r="AS10" t="n">
-        <v>2918064.799206494</v>
+        <v>4720052.15504677</v>
       </c>
       <c r="AT10" t="n">
         <v>3661112.354900001</v>
@@ -9029,16 +9029,16 @@
         <v>3529191.281616001</v>
       </c>
       <c r="AW10" t="n">
-        <v>3165761.209412433</v>
+        <v>2948958.865390576</v>
       </c>
       <c r="AX10" t="n">
-        <v>3262312.97459141</v>
+        <v>3262312.974588484</v>
       </c>
       <c r="AY10" t="n">
         <v>12722072.20000005</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13637400.16616026</v>
+        <v>18398415.36982223</v>
       </c>
       <c r="BA10" t="n">
         <v>14965759.3415</v>
@@ -9050,31 +9050,31 @@
         <v>14426497.26936</v>
       </c>
       <c r="BD10" t="n">
-        <v>13111600.02597776</v>
+        <v>12734938.62183902</v>
       </c>
       <c r="BE10" t="n">
-        <v>13522473.75924035</v>
+        <v>13522473.75931624</v>
       </c>
       <c r="BF10" t="n">
-        <v>22.05999999999995</v>
+        <v>25.12</v>
       </c>
       <c r="BG10" t="n">
-        <v>24.099717848305</v>
+        <v>22.97401705787988</v>
       </c>
       <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="n">
-        <v>22.06013784192299</v>
+        <v>24.70353380363402</v>
       </c>
       <c r="BL10" t="n">
-        <v>24.21349037455535</v>
+        <v>24.20815797966901</v>
       </c>
       <c r="BM10" t="n">
         <v>1759691.999999985</v>
       </c>
       <c r="BN10" t="n">
-        <v>1759786.193931846</v>
+        <v>3068797.434226207</v>
       </c>
       <c r="BO10" t="n">
         <v>2395687.796700001</v>
@@ -9086,7 +9086,7 @@
         <v>2309363.839728001</v>
       </c>
       <c r="BR10" t="n">
-        <v>1661854.492760611</v>
+        <v>1796647.119606844</v>
       </c>
       <c r="BS10" t="n">
         <v>1970146.593242269</v>
@@ -9095,7 +9095,7 @@
         <v>6794313.399999976</v>
       </c>
       <c r="BU10" t="n">
-        <v>7068787.653288818</v>
+        <v>11086093.29541858</v>
       </c>
       <c r="BV10" t="n">
         <v>8570967.312600002</v>
@@ -9107,70 +9107,70 @@
         <v>8262129.151584002</v>
       </c>
       <c r="BY10" t="n">
-        <v>7226992.680797213</v>
+        <v>6841074.693693171</v>
       </c>
       <c r="BZ10" t="n">
-        <v>7191072.080992055</v>
+        <v>7191072.081005768</v>
       </c>
       <c r="CA10" t="n">
-        <v>25.13999999999987</v>
+        <v>28.8</v>
       </c>
       <c r="CB10" t="n">
-        <v>27.59971406447639</v>
+        <v>26.3009118769782</v>
       </c>
       <c r="CC10" t="inlineStr"/>
       <c r="CD10" t="inlineStr"/>
       <c r="CE10" t="inlineStr"/>
       <c r="CF10" t="n">
-        <v>25.14012198522855</v>
+        <v>28.32383845716352</v>
       </c>
       <c r="CG10" t="n">
-        <v>27.6394998650469</v>
+        <v>27.63900943936771</v>
       </c>
       <c r="CH10" t="n">
         <v>105.6840000000001</v>
       </c>
       <c r="CI10" t="n">
-        <v>105.7008351767626</v>
+        <v>98.31721622250308</v>
       </c>
       <c r="CJ10" t="inlineStr"/>
       <c r="CK10" t="inlineStr"/>
       <c r="CL10" t="inlineStr"/>
       <c r="CM10" t="n">
-        <v>105.6840208735048</v>
+        <v>104.7200089158082</v>
       </c>
       <c r="CN10" t="inlineStr"/>
       <c r="CO10" t="n">
         <v>106.156</v>
       </c>
       <c r="CP10" t="n">
-        <v>106.1622006970777</v>
+        <v>100.7557182674393</v>
       </c>
       <c r="CQ10" t="inlineStr"/>
       <c r="CR10" t="inlineStr"/>
       <c r="CS10" t="inlineStr"/>
       <c r="CT10" t="n">
-        <v>106.1559767804568</v>
+        <v>105.4700089853956</v>
       </c>
       <c r="CU10" t="inlineStr"/>
       <c r="CV10" t="n">
         <v>-0.4580000000000268</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0.4849131625033424</v>
+        <v>-0.6642079644210012</v>
       </c>
       <c r="CX10" t="inlineStr"/>
       <c r="CY10" t="inlineStr"/>
       <c r="CZ10" t="inlineStr"/>
       <c r="DA10" t="n">
-        <v>-0.4580003129503197</v>
+        <v>-0.7399910701849739</v>
       </c>
       <c r="DB10" t="inlineStr"/>
       <c r="DC10" t="n">
         <v>776535.3999999985</v>
       </c>
       <c r="DD10" t="n">
-        <v>776520.8941510505</v>
+        <v>1120542.426706035</v>
       </c>
       <c r="DE10" t="n">
         <v>944969.6707000002</v>
@@ -9182,14 +9182,14 @@
         <v>910919.5238880002</v>
       </c>
       <c r="DH10" t="n">
-        <v>806898.4776216218</v>
+        <v>714477.8688123573</v>
       </c>
       <c r="DI10" t="inlineStr"/>
       <c r="DJ10" t="n">
         <v>1991145</v>
       </c>
       <c r="DK10" t="n">
-        <v>1991105.068286545</v>
+        <v>2720293.870872003</v>
       </c>
       <c r="DL10" t="n">
         <v>2515030.980000001</v>
@@ -9201,66 +9201,66 @@
         <v>2424406.7232</v>
       </c>
       <c r="DO10" t="n">
-        <v>2024639.114065982</v>
+        <v>1884981.875432847</v>
       </c>
       <c r="DP10" t="inlineStr"/>
       <c r="DQ10" t="n">
-        <v>39.36000000000001</v>
+        <v>39.3599999999999</v>
       </c>
       <c r="DR10" t="n">
-        <v>39.3510392900333</v>
+        <v>41.65383348157219</v>
       </c>
       <c r="DS10" t="inlineStr"/>
       <c r="DT10" t="inlineStr"/>
       <c r="DU10" t="inlineStr"/>
       <c r="DV10" t="n">
-        <v>39.35999981140278</v>
+        <v>38.00992806038509</v>
       </c>
       <c r="DW10" t="inlineStr"/>
       <c r="DX10" t="n">
         <v>216399</v>
       </c>
       <c r="DY10" t="n">
-        <v>216269.6036121463</v>
+        <v>232179.928826156</v>
       </c>
       <c r="DZ10" t="inlineStr"/>
       <c r="EA10" t="inlineStr"/>
       <c r="EB10" t="inlineStr"/>
       <c r="EC10" t="n">
-        <v>135665.3179263315</v>
+        <v>219949.7616196542</v>
       </c>
       <c r="ED10" t="inlineStr"/>
       <c r="EE10" t="n">
-        <v>1613691.399999999</v>
+        <v>1721330.2</v>
       </c>
       <c r="EF10" t="n">
-        <v>1610415.12738159</v>
+        <v>1613573.070664578</v>
       </c>
       <c r="EG10" t="inlineStr"/>
       <c r="EH10" t="inlineStr"/>
       <c r="EI10" t="inlineStr"/>
       <c r="EJ10" t="n">
-        <v>1554286.823388649</v>
+        <v>1731633.861018285</v>
       </c>
       <c r="EK10" t="inlineStr"/>
       <c r="EL10" t="n">
         <v>13.2600000000001</v>
       </c>
       <c r="EM10" t="n">
-        <v>13.26327212627173</v>
+        <v>13.92491795564249</v>
       </c>
       <c r="EN10" t="inlineStr"/>
       <c r="EO10" t="inlineStr"/>
       <c r="EP10" t="inlineStr"/>
       <c r="EQ10" t="n">
-        <v>2.700000214576758</v>
+        <v>12.99577792446581</v>
       </c>
       <c r="ER10" t="inlineStr"/>
       <c r="ES10" t="n">
         <v>207.1800000000003</v>
       </c>
       <c r="ET10" t="n">
-        <v>207.2609288551967</v>
+        <v>357.5957656463842</v>
       </c>
       <c r="EU10" t="n">
         <v>271.8833700000001</v>
@@ -9272,16 +9272,16 @@
         <v>262.0865808</v>
       </c>
       <c r="EX10" t="n">
-        <v>226.850240000033</v>
+        <v>209.1999987879262</v>
       </c>
       <c r="EY10" t="n">
-        <v>235.7210890049925</v>
+        <v>235.4528037794027</v>
       </c>
       <c r="EZ10" t="n">
         <v>123.840000000002</v>
       </c>
       <c r="FA10" t="n">
-        <v>132.7785350697894</v>
+        <v>189.6342552044873</v>
       </c>
       <c r="FB10" t="n">
         <v>149.1917900000001</v>
@@ -9293,31 +9293,31 @@
         <v>143.8159536</v>
       </c>
       <c r="FE10" t="n">
-        <v>123.8400079158873</v>
+        <v>123.8999999940395</v>
       </c>
       <c r="FF10" t="n">
-        <v>132.5017242618926</v>
+        <v>132.4654018804342</v>
       </c>
       <c r="FG10" t="n">
-        <v>1.579999999999998</v>
+        <v>1.88</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.58098165564546</v>
+        <v>1.69118093562816</v>
       </c>
       <c r="FI10" t="inlineStr"/>
       <c r="FJ10" t="inlineStr"/>
       <c r="FK10" t="inlineStr"/>
       <c r="FL10" t="n">
-        <v>1.580469297697414</v>
+        <v>1.840326023067271</v>
       </c>
       <c r="FM10" t="n">
-        <v>1.800000000000006</v>
+        <v>1.599986679212559</v>
       </c>
       <c r="FN10" t="n">
-        <v>522979.8000000007</v>
+        <v>566029.8</v>
       </c>
       <c r="FO10" t="n">
-        <v>523172.255106464</v>
+        <v>532493.8692234657</v>
       </c>
       <c r="FP10" t="n">
         <v>864638.8960000002</v>
@@ -9329,7 +9329,7 @@
         <v>833483.3126400001</v>
       </c>
       <c r="FS10" t="n">
-        <v>504535.3183001818</v>
+        <v>578079.3466355671</v>
       </c>
       <c r="FT10" t="n">
         <v>758447.0866104666</v>
@@ -9338,7 +9338,7 @@
         <v>4158649.800000012</v>
       </c>
       <c r="FV10" t="n">
-        <v>4445162.896355654</v>
+        <v>6333814.948212617</v>
       </c>
       <c r="FW10" t="n">
         <v>5012302.427000001</v>
@@ -9350,31 +9350,31 @@
         <v>4831693.843680001</v>
       </c>
       <c r="FZ10" t="n">
-        <v>4224983.515297779</v>
+        <v>4176026.016228411</v>
       </c>
       <c r="GA10" t="n">
-        <v>4404845.528135514</v>
+        <v>4404845.528133055</v>
       </c>
       <c r="GB10" t="n">
-        <v>10.13999999999987</v>
+        <v>19.02</v>
       </c>
       <c r="GC10" t="n">
-        <v>10.15327606698405</v>
+        <v>15.66315523676837</v>
       </c>
       <c r="GD10" t="inlineStr"/>
       <c r="GE10" t="inlineStr"/>
       <c r="GF10" t="inlineStr"/>
       <c r="GG10" t="n">
-        <v>10.14001174043342</v>
+        <v>17.84291363528007</v>
       </c>
       <c r="GH10" t="n">
-        <v>18.53504785172106</v>
+        <v>18.5329153418827</v>
       </c>
       <c r="GI10" t="n">
         <v>20542.80000000005</v>
       </c>
       <c r="GJ10" t="n">
-        <v>21840.22485038439</v>
+        <v>31906.77324342326</v>
       </c>
       <c r="GK10" t="n">
         <v>25084.42530000001</v>
@@ -9386,16 +9386,16 @@
         <v>24180.55675200001</v>
       </c>
       <c r="GN10" t="n">
-        <v>20543.98960644164</v>
+        <v>20816.68038671051</v>
       </c>
       <c r="GO10" t="n">
-        <v>24674.96388552953</v>
+        <v>24714.3371710277</v>
       </c>
       <c r="GP10" t="n">
         <v>46615.39999999991</v>
       </c>
       <c r="GQ10" t="n">
-        <v>50382.6451318332</v>
+        <v>73180.08314789052</v>
       </c>
       <c r="GR10" t="n">
         <v>57320.97910000002</v>
@@ -9407,31 +9407,31 @@
         <v>55255.52894400002</v>
       </c>
       <c r="GU10" t="n">
-        <v>50374.76502334684</v>
+        <v>47351.12537823007</v>
       </c>
       <c r="GV10" t="n">
-        <v>63931.1777179065</v>
+        <v>59244.43829675554</v>
       </c>
       <c r="GW10" t="n">
         <v>44.19999999999999</v>
       </c>
       <c r="GX10" t="n">
-        <v>43.39971315710471</v>
+        <v>45.06656445590183</v>
       </c>
       <c r="GY10" t="inlineStr"/>
       <c r="GZ10" t="inlineStr"/>
       <c r="HA10" t="inlineStr"/>
       <c r="HB10" t="n">
-        <v>44.20085873600895</v>
+        <v>44.11164261952919</v>
       </c>
       <c r="HC10" t="n">
-        <v>44.52926543233855</v>
+        <v>44.5258767461942</v>
       </c>
       <c r="HD10" t="n">
         <v>153835.0000000019</v>
       </c>
       <c r="HE10" t="n">
-        <v>147241.8785869107</v>
+        <v>224453.4922251546</v>
       </c>
       <c r="HF10" t="n">
         <v>194420.7672000001</v>
@@ -9443,14 +9443,14 @@
         <v>187415.1924480001</v>
       </c>
       <c r="HI10" t="n">
-        <v>151154.572371475</v>
+        <v>152866.5978005331</v>
       </c>
       <c r="HJ10" t="inlineStr"/>
       <c r="HK10" t="n">
         <v>576839.200000003</v>
       </c>
       <c r="HL10" t="n">
-        <v>576232.5791226105</v>
+        <v>855123.144141457</v>
       </c>
       <c r="HM10" t="n">
         <v>688375.8970000002</v>
@@ -9462,111 +9462,111 @@
         <v>663571.6084800002</v>
       </c>
       <c r="HP10" t="n">
-        <v>561052.939321628</v>
+        <v>576962.0678725858</v>
       </c>
       <c r="HQ10" t="inlineStr"/>
       <c r="HR10" t="n">
-        <v>25.53999999999996</v>
+        <v>29.74</v>
       </c>
       <c r="HS10" t="n">
-        <v>25.51422661811496</v>
+        <v>26.94812290236503</v>
       </c>
       <c r="HT10" t="inlineStr"/>
       <c r="HU10" t="inlineStr"/>
       <c r="HV10" t="inlineStr"/>
       <c r="HW10" t="n">
-        <v>25.54000035092429</v>
+        <v>28.20404413472997</v>
       </c>
       <c r="HX10" t="inlineStr"/>
       <c r="HY10" t="n">
         <v>383545.1999999993</v>
       </c>
       <c r="HZ10" t="n">
-        <v>336492.506883572</v>
+        <v>485791.3990122914</v>
       </c>
       <c r="IA10" t="inlineStr"/>
       <c r="IB10" t="inlineStr"/>
       <c r="IC10" t="inlineStr"/>
       <c r="ID10" t="n">
-        <v>364369.1141108858</v>
+        <v>369129.9939561568</v>
       </c>
       <c r="IE10" t="inlineStr"/>
       <c r="IF10" t="n">
         <v>1094906.600000009</v>
       </c>
       <c r="IG10" t="n">
-        <v>1023425.227577086</v>
+        <v>1596299.812081739</v>
       </c>
       <c r="IH10" t="inlineStr"/>
       <c r="II10" t="inlineStr"/>
       <c r="IJ10" t="inlineStr"/>
       <c r="IK10" t="n">
-        <v>1068851.570818938</v>
+        <v>1068182.131214311</v>
       </c>
       <c r="IL10" t="inlineStr"/>
       <c r="IM10" t="n">
-        <v>34.67999999999995</v>
+        <v>36.66</v>
       </c>
       <c r="IN10" t="n">
-        <v>32.49780535796715</v>
+        <v>34.95536696493261</v>
       </c>
       <c r="IO10" t="inlineStr"/>
       <c r="IP10" t="inlineStr"/>
       <c r="IQ10" t="inlineStr"/>
       <c r="IR10" t="n">
-        <v>32.50000001043085</v>
+        <v>35.70000401192095</v>
       </c>
       <c r="IS10" t="inlineStr"/>
       <c r="IT10" t="n">
-        <v>516522.799999997</v>
+        <v>628571.6</v>
       </c>
       <c r="IU10" t="n">
-        <v>516485.6194070837</v>
+        <v>559720.8278641113</v>
       </c>
       <c r="IV10" t="inlineStr"/>
       <c r="IW10" t="inlineStr"/>
       <c r="IX10" t="inlineStr"/>
       <c r="IY10" t="n">
-        <v>485497.8899640642</v>
+        <v>609456.8514593539</v>
       </c>
       <c r="IZ10" t="n">
-        <v>621003.6496164358</v>
+        <v>621003.6496167802</v>
       </c>
       <c r="JA10" t="n">
-        <v>4810175.999999985</v>
+        <v>5179986.6</v>
       </c>
       <c r="JB10" t="n">
-        <v>4745000.188979174</v>
+        <v>4864641.016218947</v>
       </c>
       <c r="JC10" t="inlineStr"/>
       <c r="JD10" t="inlineStr"/>
       <c r="JE10" t="inlineStr"/>
       <c r="JF10" t="n">
-        <v>4985163.063472229</v>
+        <v>5123225.277534552</v>
       </c>
       <c r="JG10" t="n">
-        <v>5105398.141118413</v>
+        <v>5105398.141077965</v>
       </c>
       <c r="JH10" t="n">
-        <v>10.75999999999999</v>
+        <v>12.14</v>
       </c>
       <c r="JI10" t="n">
-        <v>10.76292240979251</v>
+        <v>11.13937174661575</v>
       </c>
       <c r="JJ10" t="inlineStr"/>
       <c r="JK10" t="inlineStr"/>
       <c r="JL10" t="inlineStr"/>
       <c r="JM10" t="n">
-        <v>10.75935616118761</v>
+        <v>11.90000901788117</v>
       </c>
       <c r="JN10" t="n">
-        <v>11.95043451962703</v>
+        <v>11.94946475232182</v>
       </c>
       <c r="JO10" t="n">
         <v>1382302.799999997</v>
       </c>
       <c r="JP10" t="n">
-        <v>1382664.350398907</v>
+        <v>1583608.995846797</v>
       </c>
       <c r="JQ10" t="n">
         <v>2210010.634700001</v>
@@ -9578,14 +9578,14 @@
         <v>2130377.193648001</v>
       </c>
       <c r="JT10" t="n">
-        <v>934954.9993025571</v>
+        <v>1709175.843956773</v>
       </c>
       <c r="JU10" t="inlineStr"/>
       <c r="JV10" t="n">
         <v>6860844.600000024</v>
       </c>
       <c r="JW10" t="n">
-        <v>6860596.198698994</v>
+        <v>10976111.31131544</v>
       </c>
       <c r="JX10" t="n">
         <v>8587659.516700001</v>
@@ -9597,59 +9597,59 @@
         <v>8278219.884528003</v>
       </c>
       <c r="KA10" t="n">
-        <v>7171339.089084241</v>
+        <v>6838673.534842541</v>
       </c>
       <c r="KB10" t="inlineStr"/>
       <c r="KC10" t="n">
-        <v>18.60000000000014</v>
+        <v>23.64</v>
       </c>
       <c r="KD10" t="n">
-        <v>18.61342530003365</v>
+        <v>23.13160507975232</v>
       </c>
       <c r="KE10" t="inlineStr"/>
       <c r="KF10" t="inlineStr"/>
       <c r="KG10" t="inlineStr"/>
       <c r="KH10" t="n">
-        <v>18.60016958042621</v>
+        <v>23.95974244808301</v>
       </c>
       <c r="KI10" t="inlineStr"/>
       <c r="KJ10" t="n">
         <v>95105.79999999981</v>
       </c>
       <c r="KK10" t="n">
-        <v>95115.45202640396</v>
+        <v>101660.7946698534</v>
       </c>
       <c r="KL10" t="inlineStr"/>
       <c r="KM10" t="inlineStr"/>
       <c r="KN10" t="inlineStr"/>
       <c r="KO10" t="n">
-        <v>95621.98882992398</v>
+        <v>89821.66503017029</v>
       </c>
       <c r="KP10" t="inlineStr"/>
       <c r="KQ10" t="n">
         <v>483826.1999999955</v>
       </c>
       <c r="KR10" t="n">
-        <v>483948.7636623158</v>
+        <v>621679.1329284406</v>
       </c>
       <c r="KS10" t="inlineStr"/>
       <c r="KT10" t="inlineStr"/>
       <c r="KU10" t="inlineStr"/>
       <c r="KV10" t="n">
-        <v>429589.9205561038</v>
+        <v>445227.7532698108</v>
       </c>
       <c r="KW10" t="inlineStr"/>
       <c r="KX10" t="n">
-        <v>16.96000000000004</v>
+        <v>25.06</v>
       </c>
       <c r="KY10" t="n">
-        <v>16.38498785703791</v>
+        <v>20.91122422146004</v>
       </c>
       <c r="KZ10" t="inlineStr"/>
       <c r="LA10" t="inlineStr"/>
       <c r="LB10" t="inlineStr"/>
       <c r="LC10" t="n">
-        <v>16.95953130008056</v>
+        <v>22.30000402086164</v>
       </c>
       <c r="LD10" t="inlineStr"/>
     </row>
@@ -9661,85 +9661,85 @@
         <v>14471.19999999995</v>
       </c>
       <c r="C11" t="n">
-        <v>14540.80306856729</v>
+        <v>15702.65366925805</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>14470.5797510318</v>
+        <v>14330.49342721365</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>105144.1000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>104518.6311905583</v>
+        <v>105630.3729002913</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>105143.685896314</v>
+        <v>105091.1355709325</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
         <v>13.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>13.84865439576535</v>
+        <v>14.08395574125315</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>13.7509449600273</v>
+        <v>13.62685765347384</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
         <v>7233.199999999997</v>
       </c>
       <c r="X11" t="n">
-        <v>7233.885977447008</v>
+        <v>8157.734340430559</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="n">
-        <v>7062.572996890858</v>
+        <v>7395.207085487923</v>
       </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>45022.30000000005</v>
+        <v>51846.6</v>
       </c>
       <c r="AE11" t="n">
-        <v>45035.10170592176</v>
+        <v>47335.91773807315</v>
       </c>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="n">
-        <v>45170.77987928104</v>
+        <v>51300.62381340958</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="n">
         <v>15.72000000000003</v>
       </c>
       <c r="AL11" t="n">
-        <v>15.40164535181386</v>
+        <v>21.34353784586741</v>
       </c>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="n">
-        <v>15.7201107079063</v>
+        <v>15.52500000037253</v>
       </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="n">
         <v>3036473.400000006</v>
       </c>
       <c r="AS11" t="n">
-        <v>3037348.401596733</v>
+        <v>4905223.087605039</v>
       </c>
       <c r="AT11" t="n">
         <v>4027223.590390001</v>
@@ -9751,16 +9751,16 @@
         <v>3882110.409777602</v>
       </c>
       <c r="AW11" t="n">
-        <v>3331977.607508293</v>
+        <v>3061105.018795189</v>
       </c>
       <c r="AX11" t="n">
-        <v>3450729.921447254</v>
+        <v>3450729.921443638</v>
       </c>
       <c r="AY11" t="n">
         <v>13375430.4000001</v>
       </c>
       <c r="AZ11" t="n">
-        <v>14483278.40199519</v>
+        <v>19602169.05079539</v>
       </c>
       <c r="BA11" t="n">
         <v>16462335.27565001</v>
@@ -9772,31 +9772,31 @@
         <v>15869146.99629601</v>
       </c>
       <c r="BD11" t="n">
-        <v>13833898.50418951</v>
+        <v>13363278.15519273</v>
       </c>
       <c r="BE11" t="n">
-        <v>14344566.08725971</v>
+        <v>14344566.08735869</v>
       </c>
       <c r="BF11" t="n">
-        <v>21.54999999999995</v>
+        <v>25.12</v>
       </c>
       <c r="BG11" t="n">
-        <v>23.99944344061137</v>
+        <v>22.80575120166833</v>
       </c>
       <c r="BH11" t="inlineStr"/>
       <c r="BI11" t="inlineStr"/>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="n">
-        <v>21.55016027813975</v>
+        <v>24.70353480363402</v>
       </c>
       <c r="BL11" t="n">
-        <v>24.14122215831899</v>
+        <v>24.13461454341327</v>
       </c>
       <c r="BM11" t="n">
         <v>1799847.399999991</v>
       </c>
       <c r="BN11" t="n">
-        <v>1800052.126824642</v>
+        <v>3198116.832277813</v>
       </c>
       <c r="BO11" t="n">
         <v>2635256.576370001</v>
@@ -9808,16 +9808,16 @@
         <v>2540300.223700801</v>
       </c>
       <c r="BR11" t="n">
-        <v>1668331.287993067</v>
+        <v>1836779.786055685</v>
       </c>
       <c r="BS11" t="n">
-        <v>2053202.434851554</v>
+        <v>2053202.434851553</v>
       </c>
       <c r="BT11" t="n">
         <v>7046353.5</v>
       </c>
       <c r="BU11" t="n">
-        <v>7373087.392661867</v>
+        <v>11495235.70190366</v>
       </c>
       <c r="BV11" t="n">
         <v>9428064.043860003</v>
@@ -9829,70 +9829,70 @@
         <v>9088342.066742403</v>
       </c>
       <c r="BY11" t="n">
-        <v>7569753.355233416</v>
+        <v>7087893.746913425</v>
       </c>
       <c r="BZ11" t="n">
-        <v>7523633.993670826</v>
+        <v>7523633.993687685</v>
       </c>
       <c r="CA11" t="n">
-        <v>24.52999999999997</v>
+        <v>28.8</v>
       </c>
       <c r="CB11" t="n">
-        <v>27.49943828632444</v>
+        <v>26.10236292404597</v>
       </c>
       <c r="CC11" t="inlineStr"/>
       <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="inlineStr"/>
       <c r="CF11" t="n">
-        <v>24.53014003565872</v>
+        <v>28.32383945716352</v>
       </c>
       <c r="CG11" t="n">
-        <v>27.54925593758931</v>
+        <v>27.54864576733603</v>
       </c>
       <c r="CH11" t="n">
         <v>106.033</v>
       </c>
       <c r="CI11" t="n">
-        <v>106.0533482675656</v>
+        <v>97.80116884380624</v>
       </c>
       <c r="CJ11" t="inlineStr"/>
       <c r="CK11" t="inlineStr"/>
       <c r="CL11" t="inlineStr"/>
       <c r="CM11" t="n">
-        <v>106.033023402398</v>
+        <v>104.7200099158082</v>
       </c>
       <c r="CN11" t="inlineStr"/>
       <c r="CO11" t="n">
         <v>106.303</v>
       </c>
       <c r="CP11" t="n">
-        <v>106.3108872470771</v>
+        <v>100.2271608078284</v>
       </c>
       <c r="CQ11" t="inlineStr"/>
       <c r="CR11" t="inlineStr"/>
       <c r="CS11" t="inlineStr"/>
       <c r="CT11" t="n">
-        <v>106.3029745262038</v>
+        <v>105.4700099853955</v>
       </c>
       <c r="CU11" t="inlineStr"/>
       <c r="CV11" t="n">
         <v>-0.2540000000000191</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0.2852785453410538</v>
+        <v>-0.664881710383791</v>
       </c>
       <c r="CX11" t="inlineStr"/>
       <c r="CY11" t="inlineStr"/>
       <c r="CZ11" t="inlineStr"/>
       <c r="DA11" t="n">
-        <v>-0.2540003483159847</v>
+        <v>-0.7399900701849739</v>
       </c>
       <c r="DB11" t="inlineStr"/>
       <c r="DC11" t="n">
         <v>805524.8999999985</v>
       </c>
       <c r="DD11" t="n">
-        <v>805573.0002960899</v>
+        <v>1226462.283343402</v>
       </c>
       <c r="DE11" t="n">
         <v>1039466.63777</v>
@@ -9904,14 +9904,14 @@
         <v>1002011.4762768</v>
       </c>
       <c r="DH11" t="n">
-        <v>842573.9622261897</v>
+        <v>731670.3002860105</v>
       </c>
       <c r="DI11" t="inlineStr"/>
       <c r="DJ11" t="n">
         <v>2051912.299999997</v>
       </c>
       <c r="DK11" t="n">
-        <v>2052000.962380626</v>
+        <v>3001203.48836525</v>
       </c>
       <c r="DL11" t="n">
         <v>2766534.078000001</v>
@@ -9923,66 +9923,66 @@
         <v>2666847.395520001</v>
       </c>
       <c r="DO11" t="n">
-        <v>2093768.035614698</v>
+        <v>1926642.597306203</v>
       </c>
       <c r="DP11" t="inlineStr"/>
       <c r="DQ11" t="n">
         <v>39.75</v>
       </c>
       <c r="DR11" t="n">
-        <v>39.74048895062213</v>
+        <v>42.84779554842763</v>
       </c>
       <c r="DS11" t="inlineStr"/>
       <c r="DT11" t="inlineStr"/>
       <c r="DU11" t="inlineStr"/>
       <c r="DV11" t="n">
-        <v>39.74999978058933</v>
+        <v>38.10992806038509</v>
       </c>
       <c r="DW11" t="inlineStr"/>
       <c r="DX11" t="n">
         <v>222892.9000000004</v>
       </c>
       <c r="DY11" t="n">
-        <v>222760.6172389268</v>
+        <v>246808.1482760492</v>
       </c>
       <c r="DZ11" t="inlineStr"/>
       <c r="EA11" t="inlineStr"/>
       <c r="EB11" t="inlineStr"/>
       <c r="EC11" t="n">
-        <v>124207.0864507423</v>
+        <v>225807.6175499486</v>
       </c>
       <c r="ED11" t="inlineStr"/>
       <c r="EE11" t="n">
-        <v>1595751.600000001</v>
+        <v>1721330.2</v>
       </c>
       <c r="EF11" t="n">
-        <v>1592001.058744717</v>
+        <v>1604532.096003207</v>
       </c>
       <c r="EG11" t="inlineStr"/>
       <c r="EH11" t="inlineStr"/>
       <c r="EI11" t="inlineStr"/>
       <c r="EJ11" t="n">
-        <v>1530836.312655412</v>
+        <v>1731633.834412382</v>
       </c>
       <c r="EK11" t="inlineStr"/>
       <c r="EL11" t="n">
         <v>13.75000000000011</v>
       </c>
       <c r="EM11" t="n">
-        <v>13.75501875783008</v>
+        <v>14.83932149258389</v>
       </c>
       <c r="EN11" t="inlineStr"/>
       <c r="EO11" t="inlineStr"/>
       <c r="EP11" t="inlineStr"/>
       <c r="EQ11" t="n">
-        <v>0.9000002607703674</v>
+        <v>13.37073662146461</v>
       </c>
       <c r="ER11" t="inlineStr"/>
       <c r="ES11" t="n">
         <v>213.6399999999994</v>
       </c>
       <c r="ET11" t="n">
-        <v>213.7495946366194</v>
+        <v>367.1854177741426</v>
       </c>
       <c r="EU11" t="n">
         <v>299.0717070000001</v>
@@ -9994,16 +9994,16 @@
         <v>288.2952388800001</v>
       </c>
       <c r="EX11" t="n">
-        <v>237.1377999834114</v>
+        <v>215.0749985023896</v>
       </c>
       <c r="EY11" t="n">
-        <v>248.3562114102039</v>
+        <v>247.9536579926025</v>
       </c>
       <c r="EZ11" t="n">
         <v>129.6000000000004</v>
       </c>
       <c r="FA11" t="n">
-        <v>140.4110118964763</v>
+        <v>198.6290853909312</v>
       </c>
       <c r="FB11" t="n">
         <v>164.1109690000001</v>
@@ -10015,31 +10015,31 @@
         <v>158.1975489600001</v>
       </c>
       <c r="FE11" t="n">
-        <v>129.6000090180505</v>
+        <v>129.3999999940395</v>
       </c>
       <c r="FF11" t="n">
-        <v>140.3297105360365</v>
+        <v>140.2674441146148</v>
       </c>
       <c r="FG11" t="n">
-        <v>1.530000000000001</v>
+        <v>1.88</v>
       </c>
       <c r="FH11" t="n">
-        <v>1.531086744266708</v>
+        <v>1.67723735715182</v>
       </c>
       <c r="FI11" t="inlineStr"/>
       <c r="FJ11" t="inlineStr"/>
       <c r="FK11" t="inlineStr"/>
       <c r="FL11" t="n">
-        <v>1.530555984070108</v>
+        <v>1.840327023067271</v>
       </c>
       <c r="FM11" t="n">
-        <v>1.800000000000006</v>
+        <v>1.499981740139905</v>
       </c>
       <c r="FN11" t="n">
-        <v>515804.8000000007</v>
+        <v>566029.8</v>
       </c>
       <c r="FO11" t="n">
-        <v>516006.3811954525</v>
+        <v>532078.0460531927</v>
       </c>
       <c r="FP11" t="n">
         <v>951102.7856000003</v>
@@ -10051,7 +10051,7 @@
         <v>916831.6439040003</v>
       </c>
       <c r="FS11" t="n">
-        <v>493448.3056416135</v>
+        <v>578078.0992813699</v>
       </c>
       <c r="FT11" t="n">
         <v>800409.2212869809</v>
@@ -10060,7 +10060,7 @@
         <v>4351211</v>
       </c>
       <c r="FV11" t="n">
-        <v>4697934.11081337</v>
+        <v>6654174.78039136</v>
       </c>
       <c r="FW11" t="n">
         <v>5513532.669700002</v>
@@ -10072,31 +10072,31 @@
         <v>5314863.228048002</v>
       </c>
       <c r="FZ11" t="n">
-        <v>4425362.513645491</v>
+        <v>4364181.67447224</v>
       </c>
       <c r="GA11" t="n">
-        <v>4648184.298241611</v>
+        <v>4648184.298238466</v>
       </c>
       <c r="GB11" t="n">
-        <v>8.659999999999854</v>
+        <v>19.02</v>
       </c>
       <c r="GC11" t="n">
-        <v>8.672201097676689</v>
+        <v>15.62219142430994</v>
       </c>
       <c r="GD11" t="inlineStr"/>
       <c r="GE11" t="inlineStr"/>
       <c r="GF11" t="inlineStr"/>
       <c r="GG11" t="n">
-        <v>8.660013845552786</v>
+        <v>17.84291463528007</v>
       </c>
       <c r="GH11" t="n">
-        <v>18.84387476235569</v>
+        <v>18.84120142000735</v>
       </c>
       <c r="GI11" t="n">
         <v>21438.5</v>
       </c>
       <c r="GJ11" t="n">
-        <v>23019.44795231704</v>
+        <v>33401.81707859683</v>
       </c>
       <c r="GK11" t="n">
         <v>27592.86783000001</v>
@@ -10108,16 +10108,16 @@
         <v>26598.61242720001</v>
       </c>
       <c r="GN11" t="n">
-        <v>21439.83721354851</v>
+        <v>21737.91959726331</v>
       </c>
       <c r="GO11" t="n">
-        <v>27821.77924980922</v>
+        <v>27903.43100779853</v>
       </c>
       <c r="GP11" t="n">
         <v>48585.29999999981</v>
       </c>
       <c r="GQ11" t="n">
-        <v>53196.32842648945</v>
+        <v>76456.32927111787</v>
       </c>
       <c r="GR11" t="n">
         <v>63053.07701000002</v>
@@ -10129,31 +10129,31 @@
         <v>60781.08183840003</v>
       </c>
       <c r="GU11" t="n">
-        <v>53180.71157773874</v>
+        <v>49402.09942348469</v>
       </c>
       <c r="GV11" t="n">
-        <v>74931.78085447894</v>
+        <v>66359.123824472</v>
       </c>
       <c r="GW11" t="n">
-        <v>44.30000000000001</v>
+        <v>44.29999999999998</v>
       </c>
       <c r="GX11" t="n">
-        <v>43.29943982396302</v>
+        <v>45.35464694532752</v>
       </c>
       <c r="GY11" t="inlineStr"/>
       <c r="GZ11" t="inlineStr"/>
       <c r="HA11" t="inlineStr"/>
       <c r="HB11" t="n">
-        <v>44.30096673225631</v>
+        <v>44.1866426195292</v>
       </c>
       <c r="HC11" t="n">
-        <v>44.70972723621664</v>
+        <v>44.70501352173724</v>
       </c>
       <c r="HD11" t="n">
         <v>158907.7000000011</v>
       </c>
       <c r="HE11" t="n">
-        <v>150861.7609832465</v>
+        <v>243539.9589153359</v>
       </c>
       <c r="HF11" t="n">
         <v>213862.8439200001</v>
@@ -10165,14 +10165,14 @@
         <v>206156.7116928001</v>
       </c>
       <c r="HI11" t="n">
-        <v>155700.4629780732</v>
+        <v>157875.347099274</v>
       </c>
       <c r="HJ11" t="inlineStr"/>
       <c r="HK11" t="n">
         <v>603641.3000000045</v>
       </c>
       <c r="HL11" t="n">
-        <v>602966.4013143393</v>
+        <v>905611.0594067674</v>
       </c>
       <c r="HM11" t="n">
         <v>757213.4867000002</v>
@@ -10184,111 +10184,111 @@
         <v>729928.7693280003</v>
       </c>
       <c r="HP11" t="n">
-        <v>583976.083063025</v>
+        <v>603663.7142918161</v>
       </c>
       <c r="HQ11" t="inlineStr"/>
       <c r="HR11" t="n">
-        <v>24.83999999999992</v>
+        <v>29.74</v>
       </c>
       <c r="HS11" t="n">
-        <v>24.80709231899534</v>
+        <v>26.69823705035599</v>
       </c>
       <c r="HT11" t="inlineStr"/>
       <c r="HU11" t="inlineStr"/>
       <c r="HV11" t="inlineStr"/>
       <c r="HW11" t="n">
-        <v>24.84000048751962</v>
+        <v>28.20404513472997</v>
       </c>
       <c r="HX11" t="inlineStr"/>
       <c r="HY11" t="n">
         <v>395644.3999999985</v>
       </c>
       <c r="HZ11" t="n">
-        <v>338447.8792100271</v>
+        <v>534412.868594666</v>
       </c>
       <c r="IA11" t="inlineStr"/>
       <c r="IB11" t="inlineStr"/>
       <c r="IC11" t="inlineStr"/>
       <c r="ID11" t="n">
-        <v>372174.7644108993</v>
+        <v>378856.56727282</v>
       </c>
       <c r="IE11" t="inlineStr"/>
       <c r="IF11" t="n">
         <v>1135892.800000012</v>
       </c>
       <c r="IG11" t="n">
-        <v>1048991.029120775</v>
+        <v>1719451.499659485</v>
       </c>
       <c r="IH11" t="inlineStr"/>
       <c r="II11" t="inlineStr"/>
       <c r="IJ11" t="inlineStr"/>
       <c r="IK11" t="n">
-        <v>1104464.379445395</v>
+        <v>1104675.551398134</v>
       </c>
       <c r="IL11" t="inlineStr"/>
       <c r="IM11" t="n">
-        <v>34.35000000000002</v>
+        <v>36.66</v>
       </c>
       <c r="IN11" t="n">
-        <v>31.69561308383983</v>
+        <v>34.73881882673015</v>
       </c>
       <c r="IO11" t="inlineStr"/>
       <c r="IP11" t="inlineStr"/>
       <c r="IQ11" t="inlineStr"/>
       <c r="IR11" t="n">
-        <v>31.70000001192096</v>
+        <v>35.70000501192095</v>
       </c>
       <c r="IS11" t="inlineStr"/>
       <c r="IT11" t="n">
-        <v>497848</v>
+        <v>628571.6</v>
       </c>
       <c r="IU11" t="n">
-        <v>497756.0936679755</v>
+        <v>556193.7019772838</v>
       </c>
       <c r="IV11" t="inlineStr"/>
       <c r="IW11" t="inlineStr"/>
       <c r="IX11" t="inlineStr"/>
       <c r="IY11" t="n">
-        <v>463376.2833740534</v>
+        <v>609457.1329214757</v>
       </c>
       <c r="IZ11" t="n">
-        <v>623648.3376966234</v>
+        <v>623648.3376970555</v>
       </c>
       <c r="JA11" t="n">
-        <v>4748540.899999991</v>
+        <v>5179986.6</v>
       </c>
       <c r="JB11" t="n">
-        <v>4659869.65902474</v>
+        <v>4830908.128590099</v>
       </c>
       <c r="JC11" t="inlineStr"/>
       <c r="JD11" t="inlineStr"/>
       <c r="JE11" t="inlineStr"/>
       <c r="JF11" t="n">
-        <v>4962371.73102673</v>
+        <v>5123229.114493898</v>
       </c>
       <c r="JG11" t="n">
-        <v>5139243.867548591</v>
+        <v>5139243.867437465</v>
       </c>
       <c r="JH11" t="n">
-        <v>10.52999999999997</v>
+        <v>12.14</v>
       </c>
       <c r="JI11" t="n">
-        <v>10.53294136114888</v>
+        <v>11.06105039319873</v>
       </c>
       <c r="JJ11" t="inlineStr"/>
       <c r="JK11" t="inlineStr"/>
       <c r="JL11" t="inlineStr"/>
       <c r="JM11" t="n">
-        <v>10.52923710042205</v>
+        <v>11.90001001788116</v>
       </c>
       <c r="JN11" t="n">
-        <v>11.95887256919449</v>
+        <v>11.95767733586424</v>
       </c>
       <c r="JO11" t="n">
         <v>1408111.199999996</v>
       </c>
       <c r="JP11" t="n">
-        <v>1408613.9599683</v>
+        <v>1750273.874397031</v>
       </c>
       <c r="JQ11" t="n">
         <v>2431011.698170001</v>
@@ -10300,14 +10300,14 @@
         <v>2343414.913012801</v>
       </c>
       <c r="JT11" t="n">
-        <v>893386.1103696824</v>
+        <v>1759526.006132763</v>
       </c>
       <c r="JU11" t="inlineStr"/>
       <c r="JV11" t="n">
         <v>7139369.899999976</v>
       </c>
       <c r="JW11" t="n">
-        <v>7139708.396851544</v>
+        <v>11458045.85909897</v>
       </c>
       <c r="JX11" t="n">
         <v>9446425.468370004</v>
@@ -10319,59 +10319,59 @@
         <v>9106041.872980803</v>
       </c>
       <c r="KA11" t="n">
-        <v>7531061.263174711</v>
+        <v>7081895.20126182</v>
       </c>
       <c r="KB11" t="inlineStr"/>
       <c r="KC11" t="n">
-        <v>17.75999999999999</v>
+        <v>23.64</v>
       </c>
       <c r="KD11" t="n">
-        <v>17.77418007394155</v>
+        <v>23.13060479776646</v>
       </c>
       <c r="KE11" t="inlineStr"/>
       <c r="KF11" t="inlineStr"/>
       <c r="KG11" t="inlineStr"/>
       <c r="KH11" t="n">
-        <v>17.76019833391392</v>
+        <v>23.95974344808301</v>
       </c>
       <c r="KI11" t="inlineStr"/>
       <c r="KJ11" t="n">
         <v>97647.20000000019</v>
       </c>
       <c r="KK11" t="n">
-        <v>97664.02503558781</v>
+        <v>107513.5293557015</v>
       </c>
       <c r="KL11" t="inlineStr"/>
       <c r="KM11" t="inlineStr"/>
       <c r="KN11" t="inlineStr"/>
       <c r="KO11" t="n">
-        <v>98188.18665533347</v>
+        <v>91169.9281493864</v>
       </c>
       <c r="KP11" t="inlineStr"/>
       <c r="KQ11" t="n">
         <v>510815.599999994</v>
       </c>
       <c r="KR11" t="n">
-        <v>511019.086983312</v>
+        <v>676359.2218485086</v>
       </c>
       <c r="KS11" t="inlineStr"/>
       <c r="KT11" t="inlineStr"/>
       <c r="KU11" t="inlineStr"/>
       <c r="KV11" t="n">
-        <v>447951.9270485707</v>
+        <v>467817.4764506791</v>
       </c>
       <c r="KW11" t="inlineStr"/>
       <c r="KX11" t="n">
-        <v>15.61000000000013</v>
+        <v>25.06</v>
       </c>
       <c r="KY11" t="n">
-        <v>14.91682626601527</v>
+        <v>20.69162173175278</v>
       </c>
       <c r="KZ11" t="inlineStr"/>
       <c r="LA11" t="inlineStr"/>
       <c r="LB11" t="inlineStr"/>
       <c r="LC11" t="n">
-        <v>15.6094860196377</v>
+        <v>22.30000502086164</v>
       </c>
       <c r="LD11" t="inlineStr"/>
     </row>
@@ -10383,85 +10383,85 @@
         <v>14670.99999999994</v>
       </c>
       <c r="C12" t="n">
-        <v>14752.41431491186</v>
+        <v>16349.67152744488</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>14670.29106441623</v>
+        <v>14502.80755558729</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
         <v>106097.6000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>105359.6318740254</v>
+        <v>106942.4051777209</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>106097.1133352604</v>
+        <v>106046.9079594904</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
         <v>13.81999999999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.93559055858603</v>
+        <v>14.23632625116769</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>13.82110907966023</v>
+        <v>13.67389288308235</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
         <v>7289.199999999997</v>
       </c>
       <c r="X12" t="n">
-        <v>7289.96189618414</v>
+        <v>8501.800626868922</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="n">
-        <v>7052.989116576749</v>
+        <v>7449.429889384274</v>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>44047.40000000014</v>
+        <v>51846.6</v>
       </c>
       <c r="AE12" t="n">
-        <v>44063.03314669232</v>
+        <v>47098.9616332635</v>
       </c>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="n">
-        <v>44219.10448113221</v>
+        <v>51300.62517534843</v>
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="n">
         <v>16.08000000000004</v>
       </c>
       <c r="AL12" t="n">
-        <v>15.70164512251886</v>
+        <v>23.12719932991487</v>
       </c>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="n">
-        <v>16.08012612606153</v>
+        <v>15.85000000037253</v>
       </c>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="n">
         <v>3155366.400000006</v>
       </c>
       <c r="AS12" t="n">
-        <v>3156306.092505031</v>
+        <v>4969870.896248981</v>
       </c>
       <c r="AT12" t="n">
         <v>4429945.949429002</v>
@@ -10473,16 +10473,16 @@
         <v>4270321.450755361</v>
       </c>
       <c r="AW12" t="n">
-        <v>3498194.005604154</v>
+        <v>3173251.172199802</v>
       </c>
       <c r="AX12" t="n">
-        <v>3638807.770504798</v>
+        <v>3638807.770500505</v>
       </c>
       <c r="AY12" t="n">
         <v>14028788.60000014</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15326845.49510927</v>
+        <v>20121322.42580685</v>
       </c>
       <c r="BA12" t="n">
         <v>18108568.80321501</v>
@@ -10494,31 +10494,31 @@
         <v>17456061.6959256</v>
       </c>
       <c r="BD12" t="n">
-        <v>14556196.98240126</v>
+        <v>13991617.68854644</v>
       </c>
       <c r="BE12" t="n">
-        <v>15153574.68255313</v>
+        <v>15153574.68266565</v>
       </c>
       <c r="BF12" t="n">
-        <v>21.03999999999996</v>
+        <v>25.12</v>
       </c>
       <c r="BG12" t="n">
-        <v>23.89944300670924</v>
+        <v>22.6678426934868</v>
       </c>
       <c r="BH12" t="inlineStr"/>
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="n">
-        <v>21.0401827143565</v>
+        <v>24.70353580363401</v>
       </c>
       <c r="BL12" t="n">
-        <v>24.06895360619286</v>
+        <v>24.0610708617853</v>
       </c>
       <c r="BM12" t="n">
         <v>1840002.799999997</v>
       </c>
       <c r="BN12" t="n">
-        <v>1840208.043507347</v>
+        <v>3246623.09057195</v>
       </c>
       <c r="BO12" t="n">
         <v>2898782.234007001</v>
@@ -10530,16 +10530,16 @@
         <v>2794330.246070881</v>
       </c>
       <c r="BR12" t="n">
-        <v>1674808.083225523</v>
+        <v>1876912.452504527</v>
       </c>
       <c r="BS12" t="n">
-        <v>2136252.620644666</v>
+        <v>2136252.620644665</v>
       </c>
       <c r="BT12" t="n">
         <v>7298393.600000024</v>
       </c>
       <c r="BU12" t="n">
-        <v>7676555.711981984</v>
+        <v>11638291.82672021</v>
       </c>
       <c r="BV12" t="n">
         <v>10370870.448246</v>
@@ -10551,70 +10551,70 @@
         <v>9997176.273416644</v>
       </c>
       <c r="BY12" t="n">
-        <v>7912514.029669618</v>
+        <v>7334712.800133677</v>
       </c>
       <c r="BZ12" t="n">
-        <v>7856013.325084747</v>
+        <v>7856013.325104554</v>
       </c>
       <c r="CA12" t="n">
-        <v>23.91999999999985</v>
+        <v>28.8</v>
       </c>
       <c r="CB12" t="n">
-        <v>27.39943648570842</v>
+        <v>25.93925543949793</v>
       </c>
       <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr"/>
       <c r="CE12" t="inlineStr"/>
       <c r="CF12" t="n">
-        <v>23.9201580860889</v>
+        <v>28.32384045716352</v>
       </c>
       <c r="CG12" t="n">
-        <v>27.45901200648808</v>
+        <v>27.45828209194506</v>
       </c>
       <c r="CH12" t="n">
         <v>106.3820000000001</v>
       </c>
       <c r="CI12" t="n">
-        <v>106.4048982078472</v>
+        <v>97.35001733237475</v>
       </c>
       <c r="CJ12" t="inlineStr"/>
       <c r="CK12" t="inlineStr"/>
       <c r="CL12" t="inlineStr"/>
       <c r="CM12" t="n">
-        <v>106.3820259312912</v>
+        <v>104.7200109158082</v>
       </c>
       <c r="CN12" t="inlineStr"/>
       <c r="CO12" t="n">
         <v>106.45</v>
       </c>
       <c r="CP12" t="n">
-        <v>106.4591675496721</v>
+        <v>99.7457607352688</v>
       </c>
       <c r="CQ12" t="inlineStr"/>
       <c r="CR12" t="inlineStr"/>
       <c r="CS12" t="inlineStr"/>
       <c r="CT12" t="n">
-        <v>106.4499722719509</v>
+        <v>105.4700109853955</v>
       </c>
       <c r="CU12" t="inlineStr"/>
       <c r="CV12" t="n">
         <v>-0.05000000000001137</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0.08618937795243327</v>
+        <v>-0.6653013461235942</v>
       </c>
       <c r="CX12" t="inlineStr"/>
       <c r="CY12" t="inlineStr"/>
       <c r="CZ12" t="inlineStr"/>
       <c r="DA12" t="n">
-        <v>-0.05000038368164983</v>
+        <v>-0.739989070184974</v>
       </c>
       <c r="DB12" t="inlineStr"/>
       <c r="DC12" t="n">
         <v>834514.3999999985</v>
       </c>
       <c r="DD12" t="n">
-        <v>834545.7291019354</v>
+        <v>1293593.437681385</v>
       </c>
       <c r="DE12" t="n">
         <v>1143413.301547001</v>
@@ -10626,14 +10626,14 @@
         <v>1102212.62390448</v>
       </c>
       <c r="DH12" t="n">
-        <v>878249.4468307574</v>
+        <v>748862.7317596637</v>
       </c>
       <c r="DI12" t="inlineStr"/>
       <c r="DJ12" t="n">
         <v>2112679.599999994</v>
       </c>
       <c r="DK12" t="n">
-        <v>2112730.474250406</v>
+        <v>3216602.65427442</v>
       </c>
       <c r="DL12" t="n">
         <v>3043187.485800001</v>
@@ -10645,66 +10645,66 @@
         <v>2933532.135072001</v>
       </c>
       <c r="DO12" t="n">
-        <v>2162896.957163414</v>
+        <v>1968303.319179559</v>
       </c>
       <c r="DP12" t="inlineStr"/>
       <c r="DQ12" t="n">
         <v>40.13999999999999</v>
       </c>
       <c r="DR12" t="n">
-        <v>40.12887454110007</v>
+        <v>44.16678291650624</v>
       </c>
       <c r="DS12" t="inlineStr"/>
       <c r="DT12" t="inlineStr"/>
       <c r="DU12" t="inlineStr"/>
       <c r="DV12" t="n">
-        <v>40.13999974977589</v>
+        <v>38.2099280603851</v>
       </c>
       <c r="DW12" t="inlineStr"/>
       <c r="DX12" t="n">
         <v>229386.8000000007</v>
       </c>
       <c r="DY12" t="n">
-        <v>229233.8958557981</v>
+        <v>262630.4159561574</v>
       </c>
       <c r="DZ12" t="inlineStr"/>
       <c r="EA12" t="inlineStr"/>
       <c r="EB12" t="inlineStr"/>
       <c r="EC12" t="n">
-        <v>112748.8549751531</v>
+        <v>231665.473480243</v>
       </c>
       <c r="ED12" t="inlineStr"/>
       <c r="EE12" t="n">
-        <v>1577811.800000004</v>
+        <v>1721330.2</v>
       </c>
       <c r="EF12" t="n">
-        <v>1573637.301770786</v>
+        <v>1596972.745745657</v>
       </c>
       <c r="EG12" t="inlineStr"/>
       <c r="EH12" t="inlineStr"/>
       <c r="EI12" t="inlineStr"/>
       <c r="EJ12" t="n">
-        <v>1507385.801922174</v>
+        <v>1731633.807806478</v>
       </c>
       <c r="EK12" t="inlineStr"/>
       <c r="EL12" t="n">
-        <v>14.24000000000001</v>
+        <v>14.24000000000012</v>
       </c>
       <c r="EM12" t="n">
-        <v>14.24542181935685</v>
+        <v>15.79657154438829</v>
       </c>
       <c r="EN12" t="inlineStr"/>
       <c r="EO12" t="inlineStr"/>
       <c r="EP12" t="inlineStr"/>
       <c r="EQ12" t="n">
-        <v>0</v>
+        <v>13.74569531846341</v>
       </c>
       <c r="ER12" t="inlineStr"/>
       <c r="ES12" t="n">
         <v>220.1000000000004</v>
       </c>
       <c r="ET12" t="n">
-        <v>220.2205318230109</v>
+        <v>370.1525492621191</v>
       </c>
       <c r="EU12" t="n">
         <v>328.9788777000001</v>
@@ -10716,16 +10716,16 @@
         <v>317.1247627680001</v>
       </c>
       <c r="EX12" t="n">
-        <v>247.4253599667898</v>
+        <v>220.9499982168529</v>
       </c>
       <c r="EY12" t="n">
-        <v>260.4278139108405</v>
+        <v>260.0148260628069</v>
       </c>
       <c r="EZ12" t="n">
         <v>135.3600000000006</v>
       </c>
       <c r="FA12" t="n">
-        <v>148.0226349613416</v>
+        <v>202.011225624788</v>
       </c>
       <c r="FB12" t="n">
         <v>180.5220659000001</v>
@@ -10737,31 +10737,31 @@
         <v>174.0173038560001</v>
       </c>
       <c r="FE12" t="n">
-        <v>135.3600101202138</v>
+        <v>134.8999999940395</v>
       </c>
       <c r="FF12" t="n">
-        <v>147.6386274150676</v>
+        <v>147.5809152899311</v>
       </c>
       <c r="FG12" t="n">
-        <v>1.480000000000004</v>
+        <v>1.88</v>
       </c>
       <c r="FH12" t="n">
-        <v>1.481328157782433</v>
+        <v>1.665998395425708</v>
       </c>
       <c r="FI12" t="inlineStr"/>
       <c r="FJ12" t="inlineStr"/>
       <c r="FK12" t="inlineStr"/>
       <c r="FL12" t="n">
-        <v>1.480642670442801</v>
+        <v>1.840328023067271</v>
       </c>
       <c r="FM12" t="n">
-        <v>1.800000000000006</v>
+        <v>1.499980018823777</v>
       </c>
       <c r="FN12" t="n">
-        <v>508629.8000000007</v>
+        <v>566029.8</v>
       </c>
       <c r="FO12" t="n">
-        <v>508860.0861749082</v>
+        <v>531837.3116177775</v>
       </c>
       <c r="FP12" t="n">
         <v>1046213.064160001</v>
@@ -10773,7 +10773,7 @@
         <v>1008514.8082944</v>
       </c>
       <c r="FS12" t="n">
-        <v>482361.2929830452</v>
+        <v>578076.8519271729</v>
       </c>
       <c r="FT12" t="n">
         <v>842371.3556519941</v>
@@ -10782,7 +10782,7 @@
         <v>4543772.199999988</v>
       </c>
       <c r="FV12" t="n">
-        <v>4950014.693537594</v>
+        <v>6778522.371981956</v>
       </c>
       <c r="FW12" t="n">
         <v>6064885.936670003</v>
@@ -10794,31 +10794,31 @@
         <v>5846349.550852802</v>
       </c>
       <c r="FZ12" t="n">
-        <v>4625741.511993202</v>
+        <v>4552337.332716068</v>
       </c>
       <c r="GA12" t="n">
-        <v>4889721.237630208</v>
+        <v>4889721.237626601</v>
       </c>
       <c r="GB12" t="n">
-        <v>7.179999999999836</v>
+        <v>19.02</v>
       </c>
       <c r="GC12" t="n">
-        <v>7.195172781290936</v>
+        <v>15.59926945692983</v>
       </c>
       <c r="GD12" t="inlineStr"/>
       <c r="GE12" t="inlineStr"/>
       <c r="GF12" t="inlineStr"/>
       <c r="GG12" t="n">
-        <v>7.18001595067215</v>
+        <v>17.84291563528007</v>
       </c>
       <c r="GH12" t="n">
-        <v>19.1527016731537</v>
+        <v>19.14948749824538</v>
       </c>
       <c r="GI12" t="n">
         <v>22334.19999999995</v>
       </c>
       <c r="GJ12" t="n">
-        <v>24195.44913320616</v>
+        <v>33965.77264626493</v>
       </c>
       <c r="GK12" t="n">
         <v>30352.15461300001</v>
@@ -10830,16 +10830,16 @@
         <v>29258.47366992001</v>
       </c>
       <c r="GN12" t="n">
-        <v>22335.68482065538</v>
+        <v>22659.15880781611</v>
       </c>
       <c r="GO12" t="n">
-        <v>31834.98162752975</v>
+        <v>31990.41950541385</v>
       </c>
       <c r="GP12" t="n">
         <v>50555.19999999972</v>
       </c>
       <c r="GQ12" t="n">
-        <v>56002.3240618707</v>
+        <v>77669.85165647342</v>
       </c>
       <c r="GR12" t="n">
         <v>69358.38471100004</v>
@@ -10851,31 +10851,31 @@
         <v>66859.19002224003</v>
       </c>
       <c r="GU12" t="n">
-        <v>55986.65813213063</v>
+        <v>51453.07346873931</v>
       </c>
       <c r="GV12" t="n">
-        <v>88620.93064128765</v>
+        <v>74262.44813876078</v>
       </c>
       <c r="GW12" t="n">
         <v>44.40000000000001</v>
       </c>
       <c r="GX12" t="n">
-        <v>43.19944046167691</v>
+        <v>45.65444376837705</v>
       </c>
       <c r="GY12" t="inlineStr"/>
       <c r="GZ12" t="inlineStr"/>
       <c r="HA12" t="inlineStr"/>
       <c r="HB12" t="n">
-        <v>44.40107472850367</v>
+        <v>44.26164261952919</v>
       </c>
       <c r="HC12" t="n">
-        <v>44.85918993044673</v>
+        <v>44.85408251701172</v>
       </c>
       <c r="HD12" t="n">
         <v>163980.4000000004</v>
       </c>
       <c r="HE12" t="n">
-        <v>154471.7529905212</v>
+        <v>254667.1558692179</v>
       </c>
       <c r="HF12" t="n">
         <v>235249.1283120001</v>
@@ -10887,14 +10887,14 @@
         <v>226772.3828620801</v>
       </c>
       <c r="HI12" t="n">
-        <v>160246.3535846713</v>
+        <v>162884.0963980149</v>
       </c>
       <c r="HJ12" t="inlineStr"/>
       <c r="HK12" t="n">
         <v>630443.400000006</v>
       </c>
       <c r="HL12" t="n">
-        <v>629627.180276036</v>
+        <v>927067.7212666553</v>
       </c>
       <c r="HM12" t="n">
         <v>832934.8353700003</v>
@@ -10906,111 +10906,111 @@
         <v>802921.6462608003</v>
       </c>
       <c r="HP12" t="n">
-        <v>606899.2268044222</v>
+        <v>630365.3607110463</v>
       </c>
       <c r="HQ12" t="inlineStr"/>
       <c r="HR12" t="n">
-        <v>24.13999999999987</v>
+        <v>29.74</v>
       </c>
       <c r="HS12" t="n">
-        <v>24.10189008080228</v>
+        <v>26.48744395535783</v>
       </c>
       <c r="HT12" t="inlineStr"/>
       <c r="HU12" t="inlineStr"/>
       <c r="HV12" t="inlineStr"/>
       <c r="HW12" t="n">
-        <v>24.14000062411495</v>
+        <v>28.20404613472997</v>
       </c>
       <c r="HX12" t="inlineStr"/>
       <c r="HY12" t="n">
         <v>407743.5999999978</v>
       </c>
       <c r="HZ12" t="n">
-        <v>340397.908989142</v>
+        <v>575117.6907444985</v>
       </c>
       <c r="IA12" t="inlineStr"/>
       <c r="IB12" t="inlineStr"/>
       <c r="IC12" t="inlineStr"/>
       <c r="ID12" t="n">
-        <v>379980.4147109126</v>
+        <v>388583.1405894831</v>
       </c>
       <c r="IE12" t="inlineStr"/>
       <c r="IF12" t="n">
         <v>1176879.000000015</v>
       </c>
       <c r="IG12" t="n">
-        <v>1074486.978747679</v>
+        <v>1785519.608753847</v>
       </c>
       <c r="IH12" t="inlineStr"/>
       <c r="II12" t="inlineStr"/>
       <c r="IJ12" t="inlineStr"/>
       <c r="IK12" t="n">
-        <v>1140077.188071853</v>
+        <v>1141168.971581957</v>
       </c>
       <c r="IL12" t="inlineStr"/>
       <c r="IM12" t="n">
-        <v>34.01999999999998</v>
+        <v>36.66</v>
       </c>
       <c r="IN12" t="n">
-        <v>30.89561259188227</v>
+        <v>34.53837830027271</v>
       </c>
       <c r="IO12" t="inlineStr"/>
       <c r="IP12" t="inlineStr"/>
       <c r="IQ12" t="inlineStr"/>
       <c r="IR12" t="n">
-        <v>30.90000001341109</v>
+        <v>35.70000601192095</v>
       </c>
       <c r="IS12" t="inlineStr"/>
       <c r="IT12" t="n">
-        <v>479173.200000003</v>
+        <v>628571.6</v>
       </c>
       <c r="IU12" t="n">
-        <v>479077.7414964605</v>
+        <v>553569.3088055823</v>
       </c>
       <c r="IV12" t="inlineStr"/>
       <c r="IW12" t="inlineStr"/>
       <c r="IX12" t="inlineStr"/>
       <c r="IY12" t="n">
-        <v>441254.6767840427</v>
+        <v>609457.4143835973</v>
       </c>
       <c r="IZ12" t="n">
-        <v>626088.6033371919</v>
+        <v>626088.603337636</v>
       </c>
       <c r="JA12" t="n">
-        <v>4686905.799999997</v>
+        <v>5179986.6</v>
       </c>
       <c r="JB12" t="n">
-        <v>4574971.726146684</v>
+        <v>4801048.683807135</v>
       </c>
       <c r="JC12" t="inlineStr"/>
       <c r="JD12" t="inlineStr"/>
       <c r="JE12" t="inlineStr"/>
       <c r="JF12" t="n">
-        <v>4939580.39858123</v>
+        <v>5123232.951453243</v>
       </c>
       <c r="JG12" t="n">
-        <v>5111298.179470721</v>
+        <v>5111298.179401158</v>
       </c>
       <c r="JH12" t="n">
-        <v>10.30000000000001</v>
+        <v>12.14</v>
       </c>
       <c r="JI12" t="n">
-        <v>10.30358867602614</v>
+        <v>10.99688726976373</v>
       </c>
       <c r="JJ12" t="inlineStr"/>
       <c r="JK12" t="inlineStr"/>
       <c r="JL12" t="inlineStr"/>
       <c r="JM12" t="n">
-        <v>10.29911803965649</v>
+        <v>11.90001101788117</v>
       </c>
       <c r="JN12" t="n">
-        <v>11.96728410474793</v>
+        <v>11.96586379157355</v>
       </c>
       <c r="JO12" t="n">
         <v>1433919.599999994</v>
       </c>
       <c r="JP12" t="n">
-        <v>1434492.668965099</v>
+        <v>1985641.243855406</v>
       </c>
       <c r="JQ12" t="n">
         <v>2674112.867987001</v>
@@ -11022,14 +11022,14 @@
         <v>2577756.404314081</v>
       </c>
       <c r="JT12" t="n">
-        <v>851817.2214368078</v>
+        <v>1809876.168308753</v>
       </c>
       <c r="JU12" t="inlineStr"/>
       <c r="JV12" t="n">
         <v>7417895.199999928</v>
       </c>
       <c r="JW12" t="n">
-        <v>7418057.993369796</v>
+        <v>11637073.0866639</v>
       </c>
       <c r="JX12" t="n">
         <v>10391068.01520701</v>
@@ -11041,59 +11041,59 @@
         <v>10016646.06027888</v>
       </c>
       <c r="KA12" t="n">
-        <v>7890783.437265182</v>
+        <v>7325116.867681099</v>
       </c>
       <c r="KB12" t="inlineStr"/>
       <c r="KC12" t="n">
-        <v>16.92000000000007</v>
+        <v>23.64</v>
       </c>
       <c r="KD12" t="n">
-        <v>16.93722786759288</v>
+        <v>23.13022849304589</v>
       </c>
       <c r="KE12" t="inlineStr"/>
       <c r="KF12" t="inlineStr"/>
       <c r="KG12" t="inlineStr"/>
       <c r="KH12" t="n">
-        <v>16.92022708740162</v>
+        <v>23.95974444808301</v>
       </c>
       <c r="KI12" t="inlineStr"/>
       <c r="KJ12" t="n">
         <v>100188.6000000006</v>
       </c>
       <c r="KK12" t="n">
-        <v>100205.6347305389</v>
+        <v>113828.6400657607</v>
       </c>
       <c r="KL12" t="inlineStr"/>
       <c r="KM12" t="inlineStr"/>
       <c r="KN12" t="inlineStr"/>
       <c r="KO12" t="n">
-        <v>100754.3844807429</v>
+        <v>92518.1912686025</v>
       </c>
       <c r="KP12" t="inlineStr"/>
       <c r="KQ12" t="n">
         <v>537804.9999999925</v>
       </c>
       <c r="KR12" t="n">
-        <v>538015.4476722834</v>
+        <v>709190.7081791454</v>
       </c>
       <c r="KS12" t="inlineStr"/>
       <c r="KT12" t="inlineStr"/>
       <c r="KU12" t="inlineStr"/>
       <c r="KV12" t="n">
-        <v>466313.9335410376</v>
+        <v>490407.1996315474</v>
       </c>
       <c r="KW12" t="inlineStr"/>
       <c r="KX12" t="n">
-        <v>14.26000000000022</v>
+        <v>25.06</v>
       </c>
       <c r="KY12" t="n">
-        <v>13.4526760454599</v>
+        <v>20.52895315516007</v>
       </c>
       <c r="KZ12" t="inlineStr"/>
       <c r="LA12" t="inlineStr"/>
       <c r="LB12" t="inlineStr"/>
       <c r="LC12" t="n">
-        <v>14.25944073919484</v>
+        <v>22.30000602086164</v>
       </c>
       <c r="LD12" t="inlineStr"/>
     </row>
@@ -11105,85 +11105,85 @@
         <v>14870.79999999993</v>
       </c>
       <c r="C13" t="n">
-        <v>14964.02556125644</v>
+        <v>17062.16492555157</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>14870.00237780066</v>
+        <v>14675.12168396092</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
         <v>107051.1000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>106200.6325574925</v>
+        <v>108345.2386057547</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>107050.5407742068</v>
+        <v>107002.6803480484</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
         <v>13.89000000000001</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.02252672140671</v>
+        <v>14.39805861511093</v>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>13.89127319929317</v>
+        <v>13.72092811269085</v>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
         <v>7345.199999999997</v>
       </c>
       <c r="X13" t="n">
-        <v>7346.037814921271</v>
+        <v>8886.156548008143</v>
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="n">
-        <v>7043.405236262639</v>
+        <v>7503.652693280625</v>
       </c>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="n">
-        <v>43072.5</v>
+        <v>51846.6</v>
       </c>
       <c r="AE13" t="n">
-        <v>43090.96458746289</v>
+        <v>46909.10744784106</v>
       </c>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="n">
-        <v>43267.42908298338</v>
+        <v>51300.62653728728</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="n">
         <v>16.44000000000005</v>
       </c>
       <c r="AL13" t="n">
-        <v>16.00164489322386</v>
+        <v>24.59678884316618</v>
       </c>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="n">
-        <v>16.44014154421676</v>
+        <v>16.17500000037253</v>
       </c>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="n">
         <v>3274259.400000006</v>
       </c>
       <c r="AS13" t="n">
-        <v>3275263.783413329</v>
+        <v>4991128.349139053</v>
       </c>
       <c r="AT13" t="n">
         <v>4872940.544371903</v>
@@ -11195,16 +11195,16 @@
         <v>4697353.595830899</v>
       </c>
       <c r="AW13" t="n">
-        <v>3664410.403700015</v>
+        <v>3285397.325604415</v>
       </c>
       <c r="AX13" t="n">
-        <v>3827012.312116696</v>
+        <v>3827012.31211172</v>
       </c>
       <c r="AY13" t="n">
         <v>14682146.80000019</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16170412.58822334</v>
+        <v>20323863.15572164</v>
       </c>
       <c r="BA13" t="n">
         <v>19919425.68353651</v>
@@ -11216,31 +11216,31 @@
         <v>19201667.86551817</v>
       </c>
       <c r="BD13" t="n">
-        <v>15278495.460613</v>
+        <v>14619957.22190015</v>
       </c>
       <c r="BE13" t="n">
-        <v>15970019.41316986</v>
+        <v>15970019.41330219</v>
       </c>
       <c r="BF13" t="n">
-        <v>20.52999999999997</v>
+        <v>25.12</v>
       </c>
       <c r="BG13" t="n">
-        <v>23.79944257280712</v>
+        <v>22.55468169400813</v>
       </c>
       <c r="BH13" t="inlineStr"/>
       <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="n">
-        <v>20.53020515057326</v>
+        <v>24.70353680363402</v>
       </c>
       <c r="BL13" t="n">
-        <v>23.99668508829715</v>
+        <v>23.98752720388564</v>
       </c>
       <c r="BM13" t="n">
         <v>1880158.199999988</v>
       </c>
       <c r="BN13" t="n">
-        <v>1880363.960190053</v>
+        <v>3263691.874324492</v>
       </c>
       <c r="BO13" t="n">
         <v>3188660.457407702</v>
@@ -11252,16 +11252,16 @@
         <v>3073763.270677969</v>
       </c>
       <c r="BR13" t="n">
-        <v>1681284.878457979</v>
+        <v>1917045.118953369</v>
       </c>
       <c r="BS13" t="n">
-        <v>2219304.044388621</v>
+        <v>2219304.04438862</v>
       </c>
       <c r="BT13" t="n">
         <v>7550433.699999988</v>
       </c>
       <c r="BU13" t="n">
-        <v>7980024.0313021</v>
+        <v>11685587.73356184</v>
       </c>
       <c r="BV13" t="n">
         <v>11407957.49307061</v>
@@ -11273,70 +11273,70 @@
         <v>10996893.90075831</v>
       </c>
       <c r="BY13" t="n">
-        <v>8255274.704105821</v>
+        <v>7581531.853353931</v>
       </c>
       <c r="BZ13" t="n">
-        <v>8188455.149142843</v>
+        <v>8188455.149165678</v>
       </c>
       <c r="CA13" t="n">
-        <v>23.30999999999995</v>
+        <v>28.8</v>
       </c>
       <c r="CB13" t="n">
-        <v>27.2994346850924</v>
+        <v>25.80511345934852</v>
       </c>
       <c r="CC13" t="inlineStr"/>
       <c r="CD13" t="inlineStr"/>
       <c r="CE13" t="inlineStr"/>
       <c r="CF13" t="n">
-        <v>23.31017613651907</v>
+        <v>28.32384145716352</v>
       </c>
       <c r="CG13" t="n">
-        <v>27.36876807557377</v>
+        <v>27.36791841672408</v>
       </c>
       <c r="CH13" t="n">
         <v>106.731</v>
       </c>
       <c r="CI13" t="n">
-        <v>106.7564481481288</v>
+        <v>96.95485298151583</v>
       </c>
       <c r="CJ13" t="inlineStr"/>
       <c r="CK13" t="inlineStr"/>
       <c r="CL13" t="inlineStr"/>
       <c r="CM13" t="n">
-        <v>106.7310284601844</v>
+        <v>104.7200119158082</v>
       </c>
       <c r="CN13" t="inlineStr"/>
       <c r="CO13" t="n">
         <v>106.597</v>
       </c>
       <c r="CP13" t="n">
-        <v>106.6074478522672</v>
+        <v>99.30640120440906</v>
       </c>
       <c r="CQ13" t="inlineStr"/>
       <c r="CR13" t="inlineStr"/>
       <c r="CS13" t="inlineStr"/>
       <c r="CT13" t="n">
-        <v>106.5969700176979</v>
+        <v>105.4700119853955</v>
       </c>
       <c r="CU13" t="inlineStr"/>
       <c r="CV13" t="n">
         <v>0.1539999999999395</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.1128997894361882</v>
+        <v>-0.665563551719601</v>
       </c>
       <c r="CX13" t="inlineStr"/>
       <c r="CY13" t="inlineStr"/>
       <c r="CZ13" t="inlineStr"/>
       <c r="DA13" t="n">
-        <v>0.1539995809526851</v>
+        <v>-0.7399880701849739</v>
       </c>
       <c r="DB13" t="inlineStr"/>
       <c r="DC13" t="n">
         <v>863503.8999999985</v>
       </c>
       <c r="DD13" t="n">
-        <v>863518.4579077808</v>
+        <v>1331180.325626262</v>
       </c>
       <c r="DE13" t="n">
         <v>1257754.631701701</v>
@@ -11348,14 +11348,14 @@
         <v>1212433.886294929</v>
       </c>
       <c r="DH13" t="n">
-        <v>913924.9314353253</v>
+        <v>766055.1632333169</v>
       </c>
       <c r="DI13" t="inlineStr"/>
       <c r="DJ13" t="n">
         <v>2173446.899999991</v>
       </c>
       <c r="DK13" t="n">
-        <v>2173459.986120185</v>
+        <v>3362018.4408084</v>
       </c>
       <c r="DL13" t="n">
         <v>3347506.234380002</v>
@@ -11367,66 +11367,66 @@
         <v>3226885.348579201</v>
       </c>
       <c r="DO13" t="n">
-        <v>2232025.87871213</v>
+        <v>2009964.041052914</v>
       </c>
       <c r="DP13" t="inlineStr"/>
       <c r="DQ13" t="n">
         <v>40.52999999999997</v>
       </c>
       <c r="DR13" t="n">
-        <v>40.51726013157801</v>
+        <v>45.61194184049924</v>
       </c>
       <c r="DS13" t="inlineStr"/>
       <c r="DT13" t="inlineStr"/>
       <c r="DU13" t="inlineStr"/>
       <c r="DV13" t="n">
-        <v>40.52999971896244</v>
+        <v>38.30992806038509</v>
       </c>
       <c r="DW13" t="inlineStr"/>
       <c r="DX13" t="n">
         <v>235880.7000000011</v>
       </c>
       <c r="DY13" t="n">
-        <v>235707.1744726695</v>
+        <v>279299.8052721081</v>
       </c>
       <c r="DZ13" t="inlineStr"/>
       <c r="EA13" t="inlineStr"/>
       <c r="EB13" t="inlineStr"/>
       <c r="EC13" t="n">
-        <v>101290.6234995639</v>
+        <v>237523.3294105374</v>
       </c>
       <c r="ED13" t="inlineStr"/>
       <c r="EE13" t="n">
-        <v>1559872</v>
+        <v>1721330.2</v>
       </c>
       <c r="EF13" t="n">
-        <v>1555273.544796856</v>
+        <v>1590641.560246892</v>
       </c>
       <c r="EG13" t="inlineStr"/>
       <c r="EH13" t="inlineStr"/>
       <c r="EI13" t="inlineStr"/>
       <c r="EJ13" t="n">
-        <v>1483935.291188936</v>
+        <v>1731633.781200575</v>
       </c>
       <c r="EK13" t="inlineStr"/>
       <c r="EL13" t="n">
         <v>14.73000000000002</v>
       </c>
       <c r="EM13" t="n">
-        <v>14.73582488088362</v>
+        <v>16.76653318710932</v>
       </c>
       <c r="EN13" t="inlineStr"/>
       <c r="EO13" t="inlineStr"/>
       <c r="EP13" t="inlineStr"/>
       <c r="EQ13" t="n">
-        <v>0</v>
+        <v>14.12065401546221</v>
       </c>
       <c r="ER13" t="inlineStr"/>
       <c r="ES13" t="n">
         <v>226.5599999999995</v>
       </c>
       <c r="ET13" t="n">
-        <v>226.6914690094023</v>
+        <v>371.0345894836988</v>
       </c>
       <c r="EU13" t="n">
         <v>361.8767654700002</v>
@@ -11438,16 +11438,16 @@
         <v>348.8372390448001</v>
       </c>
       <c r="EX13" t="n">
-        <v>257.7129199501682</v>
+        <v>226.8249979313162</v>
       </c>
       <c r="EY13" t="n">
-        <v>272.8743106648607</v>
+        <v>272.3566553184833</v>
       </c>
       <c r="EZ13" t="n">
         <v>141.1200000000008</v>
       </c>
       <c r="FA13" t="n">
-        <v>155.6342580262069</v>
+        <v>203.1937525831449</v>
       </c>
       <c r="FB13" t="n">
         <v>198.5742724900001</v>
@@ -11459,31 +11459,31 @@
         <v>191.4190342416001</v>
       </c>
       <c r="FE13" t="n">
-        <v>141.120011222377</v>
+        <v>140.3999999940395</v>
       </c>
       <c r="FF13" t="n">
-        <v>155.3184443960598</v>
+        <v>155.2399805417069</v>
       </c>
       <c r="FG13" t="n">
-        <v>1.430000000000007</v>
+        <v>1.88</v>
       </c>
       <c r="FH13" t="n">
-        <v>1.431569571298159</v>
+        <v>1.656931195462374</v>
       </c>
       <c r="FI13" t="inlineStr"/>
       <c r="FJ13" t="inlineStr"/>
       <c r="FK13" t="inlineStr"/>
       <c r="FL13" t="n">
-        <v>1.430729356815494</v>
+        <v>1.840329023067271</v>
       </c>
       <c r="FM13" t="n">
-        <v>1.800000000000006</v>
+        <v>1.399975653513284</v>
       </c>
       <c r="FN13" t="n">
-        <v>501454.8000000007</v>
+        <v>566029.8</v>
       </c>
       <c r="FO13" t="n">
-        <v>501713.7911543638</v>
+        <v>531697.503752652</v>
       </c>
       <c r="FP13" t="n">
         <v>1150834.370576001</v>
@@ -11495,7 +11495,7 @@
         <v>1109366.28912384</v>
       </c>
       <c r="FS13" t="n">
-        <v>471274.280324477</v>
+        <v>578075.6045729757</v>
       </c>
       <c r="FT13" t="n">
         <v>884333.4900331998</v>
@@ -11504,7 +11504,7 @@
         <v>4736333.399999976</v>
       </c>
       <c r="FV13" t="n">
-        <v>5202095.276261818</v>
+        <v>6823189.897922471</v>
       </c>
       <c r="FW13" t="n">
         <v>6671374.530337004</v>
@@ -11516,31 +11516,31 @@
         <v>6430984.505938083</v>
       </c>
       <c r="FZ13" t="n">
-        <v>4826120.510340914</v>
+        <v>4740492.990959897</v>
       </c>
       <c r="GA13" t="n">
-        <v>5132146.877809895</v>
+        <v>5132146.877805698</v>
       </c>
       <c r="GB13" t="n">
-        <v>5.699999999999818</v>
+        <v>19.02</v>
       </c>
       <c r="GC13" t="n">
-        <v>5.71814446490518</v>
+        <v>15.58640901034278</v>
       </c>
       <c r="GD13" t="inlineStr"/>
       <c r="GE13" t="inlineStr"/>
       <c r="GF13" t="inlineStr"/>
       <c r="GG13" t="n">
-        <v>5.700018055791512</v>
+        <v>17.84291663528007</v>
       </c>
       <c r="GH13" t="n">
-        <v>19.46152858395637</v>
+        <v>19.45777357648645</v>
       </c>
       <c r="GI13" t="n">
         <v>23229.89999999991</v>
       </c>
       <c r="GJ13" t="n">
-        <v>25371.45031409528</v>
+        <v>34163.78936386186</v>
       </c>
       <c r="GK13" t="n">
         <v>33387.37007430002</v>
@@ -11552,16 +11552,16 @@
         <v>32184.32103691202</v>
       </c>
       <c r="GN13" t="n">
-        <v>23231.53242776225</v>
+        <v>23580.39801836891</v>
       </c>
       <c r="GO13" t="n">
-        <v>37006.13466176408</v>
+        <v>37284.63586728203</v>
       </c>
       <c r="GP13" t="n">
         <v>52525.09999999963</v>
       </c>
       <c r="GQ13" t="n">
-        <v>58808.31969725195</v>
+        <v>78089.59846599349</v>
       </c>
       <c r="GR13" t="n">
         <v>76294.22318210005</v>
@@ -11573,31 +11573,31 @@
         <v>73545.10902446404</v>
       </c>
       <c r="GU13" t="n">
-        <v>58792.60468652252</v>
+        <v>53504.04751399394</v>
       </c>
       <c r="GV13" t="n">
-        <v>105513.2685792114</v>
+        <v>82931.6685309061</v>
       </c>
       <c r="GW13" t="n">
         <v>44.5</v>
       </c>
       <c r="GX13" t="n">
-        <v>43.0994410993908</v>
+        <v>45.96704922918393</v>
       </c>
       <c r="GY13" t="inlineStr"/>
       <c r="GZ13" t="inlineStr"/>
       <c r="HA13" t="inlineStr"/>
       <c r="HB13" t="n">
-        <v>44.50118272475103</v>
+        <v>44.33664261952919</v>
       </c>
       <c r="HC13" t="n">
-        <v>45.02709173971333</v>
+        <v>45.02094525521199</v>
       </c>
       <c r="HD13" t="n">
         <v>169053.1000000015</v>
       </c>
       <c r="HE13" t="n">
-        <v>158081.744997796</v>
+        <v>260411.888345656</v>
       </c>
       <c r="HF13" t="n">
         <v>258774.0411432002</v>
@@ -11609,14 +11609,14 @@
         <v>249449.6211482881</v>
       </c>
       <c r="HI13" t="n">
-        <v>164792.2441912695</v>
+        <v>167892.8456967558</v>
       </c>
       <c r="HJ13" t="inlineStr"/>
       <c r="HK13" t="n">
         <v>657245.5000000075</v>
       </c>
       <c r="HL13" t="n">
-        <v>656287.9592377328</v>
+        <v>935403.4079558955</v>
       </c>
       <c r="HM13" t="n">
         <v>916228.3189070006</v>
@@ -11628,111 +11628,111 @@
         <v>883213.8108868804</v>
       </c>
       <c r="HP13" t="n">
-        <v>629822.3705458193</v>
+        <v>657067.0071302765</v>
       </c>
       <c r="HQ13" t="inlineStr"/>
       <c r="HR13" t="n">
-        <v>23.43999999999983</v>
+        <v>29.74</v>
       </c>
       <c r="HS13" t="n">
-        <v>23.39668784260923</v>
+        <v>26.30947031449597</v>
       </c>
       <c r="HT13" t="inlineStr"/>
       <c r="HU13" t="inlineStr"/>
       <c r="HV13" t="inlineStr"/>
       <c r="HW13" t="n">
-        <v>23.44000076071028</v>
+        <v>28.20404713472998</v>
       </c>
       <c r="HX13" t="inlineStr"/>
       <c r="HY13" t="n">
         <v>419842.799999997</v>
       </c>
       <c r="HZ13" t="n">
-        <v>342347.938768257</v>
+        <v>605289.2018952818</v>
       </c>
       <c r="IA13" t="inlineStr"/>
       <c r="IB13" t="inlineStr"/>
       <c r="IC13" t="inlineStr"/>
       <c r="ID13" t="n">
-        <v>387786.065010926</v>
+        <v>398309.7139061463</v>
       </c>
       <c r="IE13" t="inlineStr"/>
       <c r="IF13" t="n">
         <v>1217865.200000018</v>
       </c>
       <c r="IG13" t="n">
-        <v>1099982.928374582</v>
+        <v>1817200.019042458</v>
       </c>
       <c r="IH13" t="inlineStr"/>
       <c r="II13" t="inlineStr"/>
       <c r="IJ13" t="inlineStr"/>
       <c r="IK13" t="n">
-        <v>1175689.996698309</v>
+        <v>1177662.39176578</v>
       </c>
       <c r="IL13" t="inlineStr"/>
       <c r="IM13" t="n">
-        <v>33.68999999999994</v>
+        <v>36.66</v>
       </c>
       <c r="IN13" t="n">
-        <v>30.0956120999247</v>
+        <v>34.35247065433227</v>
       </c>
       <c r="IO13" t="inlineStr"/>
       <c r="IP13" t="inlineStr"/>
       <c r="IQ13" t="inlineStr"/>
       <c r="IR13" t="n">
-        <v>30.10000001490121</v>
+        <v>35.70000701192095</v>
       </c>
       <c r="IS13" t="inlineStr"/>
       <c r="IT13" t="n">
-        <v>460498.3999999985</v>
+        <v>628571.6</v>
       </c>
       <c r="IU13" t="n">
-        <v>460399.3893249454</v>
+        <v>551614.2668388287</v>
       </c>
       <c r="IV13" t="inlineStr"/>
       <c r="IW13" t="inlineStr"/>
       <c r="IX13" t="inlineStr"/>
       <c r="IY13" t="n">
-        <v>419133.0701940319</v>
+        <v>609457.6958457191</v>
       </c>
       <c r="IZ13" t="n">
-        <v>628608.9633102216</v>
+        <v>628608.9633107131</v>
       </c>
       <c r="JA13" t="n">
-        <v>4625270.699999988</v>
+        <v>5179986.6</v>
       </c>
       <c r="JB13" t="n">
-        <v>4490073.793268628</v>
+        <v>4774574.421109747</v>
       </c>
       <c r="JC13" t="inlineStr"/>
       <c r="JD13" t="inlineStr"/>
       <c r="JE13" t="inlineStr"/>
       <c r="JF13" t="n">
-        <v>4916789.066135731</v>
+        <v>5123236.78841259</v>
       </c>
       <c r="JG13" t="n">
-        <v>5134718.668301499</v>
+        <v>5134718.66816464</v>
       </c>
       <c r="JH13" t="n">
-        <v>10.06999999999999</v>
+        <v>12.14</v>
       </c>
       <c r="JI13" t="n">
-        <v>10.0742359909034</v>
+        <v>10.94425994656617</v>
       </c>
       <c r="JJ13" t="inlineStr"/>
       <c r="JK13" t="inlineStr"/>
       <c r="JL13" t="inlineStr"/>
       <c r="JM13" t="n">
-        <v>10.06899897889094</v>
+        <v>11.90001201788117</v>
       </c>
       <c r="JN13" t="n">
-        <v>11.97570049918349</v>
+        <v>11.97405502371108</v>
       </c>
       <c r="JO13" t="n">
         <v>1459727.999999993</v>
       </c>
       <c r="JP13" t="n">
-        <v>1460371.377961898</v>
+        <v>2261741.826206839</v>
       </c>
       <c r="JQ13" t="n">
         <v>2941524.154785702</v>
@@ -11744,14 +11744,14 @@
         <v>2835532.044745489</v>
       </c>
       <c r="JT13" t="n">
-        <v>810248.3325039332</v>
+        <v>1860226.330484742</v>
       </c>
       <c r="JU13" t="inlineStr"/>
       <c r="JV13" t="n">
         <v>7696420.5</v>
       </c>
       <c r="JW13" t="n">
-        <v>7696407.589888052</v>
+        <v>11699269.92611435</v>
       </c>
       <c r="JX13" t="n">
         <v>11430174.81672771</v>
@@ -11763,59 +11763,59 @@
         <v>11018310.66630677</v>
       </c>
       <c r="KA13" t="n">
-        <v>8250505.611355651</v>
+        <v>7568338.534100379</v>
       </c>
       <c r="KB13" t="inlineStr"/>
       <c r="KC13" t="n">
-        <v>16.08000000000015</v>
+        <v>23.64</v>
       </c>
       <c r="KD13" t="n">
-        <v>16.10027566124421</v>
+        <v>23.13008632417492</v>
       </c>
       <c r="KE13" t="inlineStr"/>
       <c r="KF13" t="inlineStr"/>
       <c r="KG13" t="inlineStr"/>
       <c r="KH13" t="n">
-        <v>16.08025584088933</v>
+        <v>23.95974544808301</v>
       </c>
       <c r="KI13" t="inlineStr"/>
       <c r="KJ13" t="n">
         <v>102730</v>
       </c>
       <c r="KK13" t="n">
-        <v>102747.2444254901</v>
+        <v>120453.0601711254</v>
       </c>
       <c r="KL13" t="inlineStr"/>
       <c r="KM13" t="inlineStr"/>
       <c r="KN13" t="inlineStr"/>
       <c r="KO13" t="n">
-        <v>103320.5823061524</v>
+        <v>93866.45438781859</v>
       </c>
       <c r="KP13" t="inlineStr"/>
       <c r="KQ13" t="n">
         <v>564794.3999999911</v>
       </c>
       <c r="KR13" t="n">
-        <v>565011.8083612549</v>
+        <v>726703.662548908</v>
       </c>
       <c r="KS13" t="inlineStr"/>
       <c r="KT13" t="inlineStr"/>
       <c r="KU13" t="inlineStr"/>
       <c r="KV13" t="n">
-        <v>484675.9400335045</v>
+        <v>512996.9228124158</v>
       </c>
       <c r="KW13" t="inlineStr"/>
       <c r="KX13" t="n">
-        <v>12.91000000000031</v>
+        <v>25.06</v>
       </c>
       <c r="KY13" t="n">
-        <v>11.98852582490454</v>
+        <v>20.40843000656194</v>
       </c>
       <c r="KZ13" t="inlineStr"/>
       <c r="LA13" t="inlineStr"/>
       <c r="LB13" t="inlineStr"/>
       <c r="LC13" t="n">
-        <v>12.90939545875198</v>
+        <v>22.30000702086164</v>
       </c>
       <c r="LD13" t="inlineStr"/>
     </row>
